--- a/deuChatbot/research_result/table_to_json(1500_500).xlsx
+++ b/deuChatbot/research_result/table_to_json(1500_500).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F401"/>
+  <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27223,6 +27223,6748 @@
         </is>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 정보를 완전히 부정하고 있으며, 관련 내용이 없다고 주장하고 있습니다. 그러나 원본 텍스트에는 디자인조형학과의 실기시험에 대한 구체적인 정보가 포함되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 내용을 포함하고 있습니다. 원본 텍스트는 디자인조형학과의 실기시험에 대한 정보를 제공하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 디자인조형학과의 실기시험에 대한 정보를 제공하지 않고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약해집니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 따라서 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다. 따라서 의미 적합성 점수는 매우 낮습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>0.5902842504847268</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 "디자인조형학과"에 대한 관련 내용이 없습니다. 다른 학과들에 대한 면접 및 서류 제출 등 입시 관련 정보만 포함되어 있습니다. 
+더 자세한 정보를 얻기 위해서는 디자인조형학과의 공식 웹사이트나 관계부서에 직접 문의해 보시는 것이 좋습니다.
+혹은 "https://ipsi.deu.ac.kr/main.do" 링크를 클릭하시어 해당 학교의 입시 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기 종목, 준비물, 실기 주제, 화지 크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 "각 종목별 배점 비율은 70%"라는 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일관성을 유지하고 있습니다. 그러나 배점 비율에 대한 언급이 추가되어 있어, 원본 텍스트와의 일관성에서 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 실기 종목, 준비물, 주제, 화지 크기, 시간에 대한 정보를 모두 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 정보가 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 원본 텍스트에 없는 배점 비율에 대한 정보가 포함되어 있어 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있지만, 일부 부정확한 정보로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>0.8110925583862544</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 '기초디자인'과 '사고의 전환' 중에서 선택해야 합니다. 각 종목별 배점 비율은 70%입니다.
+준비물은 다음과 같습니다:
+- 볼펜
+- 연필
+- 색연필
+- 수채물감 등 표현에 필요한 도구
+실기 주제는 주제 A와 주제 B에서 각각 하나씩 선택하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다.
+화지 크기는 켄트지 3절입니다.
+시험 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 누락된 정보나 잘못된 정보가 없습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트에 직접적으로 관련이 있으며, 매우 적절합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>0.9204922988910521</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 배드민턴(남)과 축구(남)의 모집종목별 인정대회는 다음과 같습니다.
+배드민턴(남):
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남):
+-춘계한국고등학교축구연맹전
+-추계한국고등학교축구연맹전
+-대한축구협회장배전국고등학교축구대회
+-문화체육관광부장관기전국고등학교축구대회
+-문화체육관광부장관배전국고등학교축구대회
+-백운기전국고등학교축구대회
+-전국고등축구리그(권역별고교축구리그)
+-전국고등축구리그왕중왕전
+-무학기전국고등학교축구대회
+-청룡기전국고등학교축구대회
+-백록기전국고등학교축구대회
+-금강대기전국고등학교축구대회
+-대통령금배전국고등학교축구대회
+-금석배전국고등학생축구대회
+-부산MBC전국고등학생축구대회
+-K리그 U18 챔피언십
+-K리그 U18 챔피언십왕중왕전
+이러한 대회들에서 입상하거나 참가하였다면 인정받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다. 주제A와 주제B의 내용, 시험 방식, 예시 등이 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 모순되지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>0.8017132658722779</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개를 선택하여 연결된 주제로 시험을 치릅니다. 주제들은 다음과 같습니다.
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일에는 이 주제들 중에서 각각 1개씩을 추첨하여 연결된 주제를 만듭니다. 예시로는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실과 상반되는 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 출결 점수가 학생부 교과 전형에서 반영되지 않는다는 원문과 완전히 모순됩니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 출결 점수에 대한 정보를 제공하지만, 질문의 핵심인 학생부 교과 전형에 대한 정보와는 관련이 없습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 출결 점수에 대한 정보를 제공하지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 그러나 내부적으로는 어느 정도의 논리적 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영된다고 잘못된 정보를 제공하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 완전히 상반되는 내용을 담고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>0.6086275922051457</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 나군 실기/실적(경기실적우수자전형)에서는 출결일수가 반영됩니다. 결석일수에 따라 다음과 같이 반영점수가 결정됩니다:
+- 0~2일 결석일수: 120점
+- 3~6일 결석일수: 90점
+- 7~12일 결석일수: 60점
+- 13~20일 결석일수: 30점
+- 21일 이상 결석일수: 0점
+따라서 출결 점수가 학생부교과 전형에서 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원문과 동일한 사실을 전달하고 있으며, 모집 인원과 전형에 대한 정보가 정확합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에 포함된 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>0.9260635843333062</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반 학생전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원이 공개되지 않았다고 주장하지만, 원본 텍스트에서는 총 28명의 신입생을 선발한다고 명확히 언급하고 있습니다. 따라서 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 모집 인원이 명시되어 있지만, 생성된 응답에서는 그 정보가 없다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 질문에 대한 직접적인 답변을 제공하지 않고, 웹사이트 방문을 권장하는 내용으로 흐르고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 관계가 명확하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>0.6417196765619142</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>2024학년도 인문사회과학대학의 영어영문학과에서 다군 일반학생전형으로는 모집인원이 공개되지 않았습니다. 따라서 정확한 모집인원은 제공된 정보로는 확인할 수 없습니다. 더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반되는 내용을 포함하고 있습니다. 원본 텍스트는 22명의 신입생을 선발한다고 명확히 언급하고 있지만, 생성된 응답은 모집 인원에 대한 정보가 없다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본 텍스트의 내용을 부정하는 내용이 포함되어 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 핵심 정보를 제공하지 않기 때문에 관련성이 낮습니다. 원본 텍스트의 중요한 사실을 무시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 정보의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 명확하지 않아 논리적 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 정확성이 매우 낮습니다. 모집 인원에 대한 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 정보가 없다는 주장은 원본의 내용을 왜곡합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 정보의 정확성 문제로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>0.617572316651701</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 정보가 없습니다. 추가 자세한 내용은 공지사항이나 입학 안내 홈페이지를 참조해주세요. 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 통해 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 영어영역 등급에 따른 점수를 잘못 제시하고 있습니다. 실제 점수는 1등급이 139점, 2등급이 131점 등으로 명시되어 있으나, 생성된 응답에서는 1등급이 230.0점, 2등급이 214.7점으로 잘못 기재되어 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트의 점수와 생성된 응답의 점수가 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 수능 영어 등급에 대한 점수를 언급하고 있지만, 제공된 점수가 원본 텍스트와 관련이 없고, 실기/실적 전형에 대한 언급은 원본 텍스트의 주제와 관련이 없습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 일관되지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다. 점수의 불일치로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 점수와 완전히 다르며, 사실적으로 부정확합니다. 따라서 정확성 점수는 최하점입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 수능 영어 등급에 대한 점수를 언급하고 있지만, 제공된 점수가 원본 텍스트와 관련이 없기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>0.86010604555758</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1: 230.0점
+- 등급 2: 214.7점
+- 등급 3: 199.4점
+이 점수들은 각 등급별로 실기/실적 전형에서의 배점을 나타내는 것입니다.</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문은 예술고 학생의 지원 불가를 명시하고 있지만, 생성된 응답은 지원 가능성을 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있으나, 잘못된 정보로 인해 주제와의 관련성이 낮습니다. 원문에서의 핵심 정보는 예술고 학생의 지원 불가라는 점입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나름의 흐름을 가지고 있으나, 원문과의 내용 불일치로 인해 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 다르며, 예술고 학생이 지원할 수 있다고 잘못된 정보를 제공합니다. 원문과의 사실적 차이가 큽니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 크며, 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있으나, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>0.7007671352044463</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원하는 것은 가능하지만, 해당 전형의 모집단위와 지원 자격 조건을 충족해야 합니다. 주요 내용은 다음과 같습니다:
+1. **지원 자격**: 
+   - 6년 과정: 중·고등학교 재학기간 동안 본인 및 부모가 농어촌 지역에 거주한 자.
+   - 12년 과정: 초·중·고등학교 전 과정을 농어촌 지역 소재 학교에서 이수하고 거주한 자.
+2. **제출 서류**: 
+   - 가족관계증명서
+   - 주민등록초본 (본인, 부모 각 1부)
+   - 중학교 및 고등학교 학교생활기록부
+3. **주의 사항**:
+   - 지원 자격 조건을 충족해야 합니다.
+   - 제출 서류를 정확하게 준비해야 합니다.
+따라서 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원하려면, 위의 조건들을 모두 만족하는지 확인하고 필요한 서류를 준비해야 합니다. 자세한 내용은 해당 대학의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+2. Consistency Score (1-5): 5
+3. Relevance Score (1-5): 5
+4. Fluency Score (1-5): 5
+5. Coherence Score (1-5): 5
+6. Accuracy Score (1-5): 5
+7. Multidimensional Quality Score (1-5): 5
+8. Semantic Appropriateness Score (1-5): 5
+9. Understandability Score (1-5): 5
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>0.9191365435484607</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 이 기록에 대한 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 출결 비율에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 세부사항도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>0.6530795448734966</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과의 경우, 출결은 전체 전형요소 중에서 12%를 차지합니다. 이는 학생부교과(18%), 서류(경기실적)(70%)에 비해 적은 비율입니다.
+전체 전형요소 반영비율은 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12%
+- 서류(경기실적): 70%
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 섹션에서 얻었습니다.</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 연도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>0.8342369933000331</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 물리치료학과에서는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜와 내용을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 맥락과 잘 맞아떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정과 관련된 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>0.4952070038361903</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024. 01. 17.(수)에 있습니다.
+대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 조회할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 잘 반영하고 있으며, 관련 과목에 대한 정보도 제공하고 있습니다. 그러나 응용화학과에 대한 구체적인 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 응답은 수능 최저 기준이 없다는 원문과 일관되며, 다른 과목에 대한 정보도 일관되게 제시하고 있습니다. 다만, 응용화학과에 대한 정보가 부족하여 약간의 일관성 문제를 보입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련된 정보를 충분히 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 응용화학과에 대한 정보가 부족하여 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 최저 기준이 없다는 사실을 정확하게 반영하고 있으며, 다른 과목에 대한 정보도 정확합니다. 그러나 응용화학과에 대한 구체적인 정보가 부족하여 약간의 정확성 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 보이며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 약간의 정보 부족이 아쉬운 점입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 제공합니다. 그러나 응용화학과에 대한 정보가 부족하여 약간의 의미적 적합성 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 일부 표현이 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>0.4922530811788423</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준에 대한 정보가 제공된 문서에서 찾을 수 없습니다. 응용화학과와 관련된 전형 유형이나 모집 단위, 학과 분리 등에 대한 변경 사항은 확인되었습니다만, 수능 최저기준 자체는 언급되어 있지 않습니다.
+문서에서 수능 최저기준이 언급된 과목들은 다음과 같습니다:
+- 국어국문학과: "수능최저기준 없음"
+- 학생부교과(성인학습자 정원외 전형): "수능최저기준 없음"
+따라서, 응용화학과의 경우 수능 최저기준이 언급되어 있지 않으므로, 해당 정보는 제공된 문서에서 확인할 수 없습니다. 더 자세한 정보를 얻기 위해서는 동의대학교에 직접 문의하거나 공식 웹사이트를 참조해 보시는 것이 좋습니다.
+더 궁금하신 점이 있으시면 알려주세요![](https://ipsi.deu.ac.kr/main.do)로 이동하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "심리학과"와 "스마트항만물류학과", "창업투자경영학과"가 신설된 학과라고 언급하고 있지만, 원본 텍스트에는 "스마트항만물류학과"와 "창업투자경영학과"가 포함되어 있습니다. 그러나 응답에서는 이 두 학과에 대한 기재가 없다고 잘못 언급하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 부분이 있습니다. 원본 텍스트에 명시된 모든 학과를 언급하지 않고, "심리학과"만 신설된 학과로 언급하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 질문에 답하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 일부 정보가 잘못되었기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 전반적으로 일관된 흐름을 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히 신설된 학과에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>0.6328317943410121</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과로는 "심리학과"와 "스마트항만물류학과", "창업투자경영학과"가 있습니다. 하지만 주어진 정보에서는 "창업투자경영학과"와 "스마트항만물류학과"에 대한 기재가 없으므로, 2024학년도에 신설된 학과는 "심리학과"입니다.
+더 정확한 정보를 얻기 위해서는 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 방문하여 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 전형요소 반영비율에 대한 명확한 정보를 제공하지 않고, 오히려 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 사실과 완전히 상반됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 담고 있습니다. 원본 텍스트는 명확한 비율을 제시하고 있지만, 생성된 응답은 그에 대한 부정확한 정보를 제공합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않으며, 관련된 정보가 부족합니다. 그러나 웹사이트를 참조하라는 제안은 어느 정도 관련성을 가질 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 정보가 없다는 주장은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>0.6550599989871313</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)에 대한 전형요소 반영비율에 대한 명확한 데이터가 없습니다. 추가적인 자세한 내용은 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시는 것이 좋을 것 같습니다. 해당 사이트에서 최신 정보와 자세한 설명을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 가산점을 적용한다고 명시하고 있지만, 생성된 응답에서는 "한의과대학 한의예과"를 언급하며 수학 과목으로 '확률과 통계'를 선택할 수 있다고 잘못 설명하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 모집단위와 생성된 응답의 학과가 서로 다르기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 질문에 답하고 있지만, 원본 텍스트에서 언급된 모집단위와는 관련이 없습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 관계가 명확하지 않아 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 정확성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>0.6744808199368464</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과로는 "한의과대학 한의예과(수학&lt;확률과통계&gt;)"가 있습니다. 이 학과에서는 수학 과목을 '확률과 통계'로 선택할 수 있으며, 이에 따라 수능 점수가 가산됩니다.</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과 일치하지 않으며, 구체적인 반영 방법에 대한 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 상충하는 정보를 제공하고 있으며, 수능 성적 반영 방법에 대한 설명이 원문과 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 수능 성적 반영에 대한 정보를 제공하고 있지만, 원문에서 언급된 100% 반영이라는 핵심 정보를 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 일부 표현이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 주제를 가지고 있지만, 원문과의 연결이 약해 전체적인 논리적 흐름이 다소 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 정보와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 원문과의 일치성이 부족하며, 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 관련이 있지만, 원문과의 일치성이 부족하여 적절성에서 다소 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>0.6543746119209857</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 &lt;가&gt;군에서는 수능 성적을 다음과 같이 반영합니다.
+- **국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사** 교과 전 과목 석차등급 평균을 사용하여 학생들의 학업 능력을 평가합니다.
+이러한 방법으로 수능 성적을 반영함으로써 지원자의 종합적인 학력 수준을 고려하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 날짜와 학교 이름이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 표현으로 되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>0.9128408788063518</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 한의예과와 경기지도학과가 제외된다는 사실을 누락하고 있으며, 레저스포츠학과와 태권도학과가 포함되어 있다고 잘못 언급하고 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 전형료 부과와 관련된 내용이 원본과 상충합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보가 포함되어 있어 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 구조는 어느 정도 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 응답에 포함된 정보는 원본 텍스트와 비교했을 때 여러 가지 부정확한 내용이 포함되어 있습니다. 특히 제외된 학과에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 어느 정도 적절하지만, 잘못된 정보로 인해 원본 텍스트의 맥락과 다소 어긋납니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>0.7584497585678454</v>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 전형료 부과에서 제외되었습니다. 그러나 실제 모집 대상은 이들 학과를 포함하여 모든 모집단위에 걸쳐 있습니다.
+따라서, 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 전형료 부과에서 제외되지만, 이들 학과를 포함하여 모든 모집단위에 걸쳐 수능(일반학생전형)을 실시합니다.</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원문과 일치하며, 수능 최저기준이 적용되지 않는다는 사실을 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 모든 정보가 서로 충돌하지 않고 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 핵심 내용을 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공하는 정보와 완벽하게 일치하며, 정확한 내용을 담고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>0.8880159235233969</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 
+다군 전형의 경우, 수능 최저기준 항목에 "수능최저기준 없음"이라고 명시되어 있습니다.
+따라서, 2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 일부 학과의 분리 정보를 누락하고 있으며, 원본 텍스트에 있는 학과 목록과 일치하지 않습니다. 예를 들어, '보육가정상담학과'와 '경제금융보험학과'의 정보가 포함되어 있지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 부분이 많아 일관성이 부족합니다. 원본 텍스트에 있는 학과들이 누락되어 있어 서로 다른 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 모든 정보를 포함하지 않기 때문에 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 더 매끄럽게 연결될 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 각 학과의 분리 정보를 나열하는 방식이 일관성을 유지하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 여러 학과의 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제에 대한 의미를 전달하지만, 원본 텍스트의 모든 내용을 반영하지 않기 때문에 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>0.8146651509182689</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과들이 학부에서 학과로 분리되었습니다.
+1. 바이오응용공학부 → 의생명공학과, 바이오의약공학과, 식품공학과
+2. 디자인공학부 → 인간공학과, 제품디자인공학과
+3. 산업융합시스템공학부 → 산업경영빅데이터공학과
+4. 창의소프트웨어공학부 → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+5. 전기전자통신공학부 → 전기공학과, 전자공학과
+6. 음악학과 → 클래식, 실용음악, 뉴미디어작곡
+위와 같이 학과 분리가 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일과 시간을 정확하게 반영하고 있으며, 추가적인 정보(인터넷 접수 가능성 등)도 포함되어 있습니다. 그러나 원문에 명시된 "18시"라는 시간 정보가 "18시까지"로 표현되어 있어 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되며, 마감일과 시간에 대한 정보가 일치합니다. 다만, 추가된 정보가 원문에 포함되어 있지 않기 때문에 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요구하는 정보에 직접적으로 관련이 있으며, 원서접수 마감일과 관련된 추가 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에 포함된 사실을 대부분 정확하게 반영하고 있지만, "18시"라는 시간 표현이 약간 다르게 나타나 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 약간의 사실성 문제로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 추가된 정보도 적절합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>0.7199308221524603</v>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 원서접수 마감일은 2024년 1월 6일(토)까지입니다. 접수 마감 시간은 18시까지이며, 원서접수는 인터넷을 통해 가능합니다. 자세한 내용은 [입학안내 홈페이지](http://ipsi.deu.ac.kr 또는 http://www.uwayapply. com)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 학생부교과 전형에서 면접 요소가 0%로 변경되었다고 언급하고 있으나, 실제로는 면접 요소의 비율이 30%에서 40%로 변경되었다고 명시되어 있습니다. 이로 인해 사실과 다르게 표현되어 있어 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 학생부교과 전형에서 면접 요소가 완전히 제외되었다고 주장하지만, 이는 원본 텍스트와 모순됩니다. 원본 텍스트에서는 면접 요소의 비율이 30%에서 0%로 변경되었다고 잘못 기재되어 있습니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 전형 요소 변화에 대한 정보를 제공하고 있으나, 원본 텍스트의 모든 전형에 대한 변화를 다루지 않고 일부 전형에만 초점을 맞추고 있습니다. 따라서 관련성은 높지만 완전하지는 않습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 전형 요소의 변화를 설명하고 있으나, 각 전형의 변화가 명확하게 연결되지 않아 일관된 흐름이 부족합니다. 따라서 중간 점수를 부여합니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 전형 요소의 비율에 대한 정보가 잘못되어 있어 정확성이 떨어집니다. 특히 면접 요소의 비율에 대한 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 평가했을 때, 사실성과 일관성, 정확성이 낮아 전반적인 품질이 떨어집니다. 따라서 낮은 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원본 텍스트의 의미를 전달하려고 하지만, 잘못된 정보로 인해 의미 전달이 완전하지 않습니다. 따라서 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 높은 점수를 부여합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>0.7110005993473207</v>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에는 '학생부교과'와 '학생부종합' 전형에서 전형 요소 반영 비율이 변경되었습니다.
+1. **학생부교과**:
+   - "서류" 요소의 반영 비율이 70%로 유지되었지만, "면접" 요소의 반영 비율이 30%에서 0%로 변경되었습니다.
+2. **학생부종합**:
+   - "서류" 요소의 반영 비율이 70%에서 60%로 변경되었습니다.
+   - "면접" 요소의 반영 비율이 40%에서 30%로 변경되었습니다.
+위와 같이 '학생부교과'에서는 면접 요소가 완전히 제외되었고, '학생부종합'에서는 서류와 면접 요소의 각각의 비율이 줄어들었습니다.</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 실기 비중에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 실기 비중에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>0.7870937424331429</v>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기가 전체 점수 중 70%를 차지합니다. 이는 전형 요소 반영비율에서 실기의 배점 비율로 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 세부 전공 내용을 정확하게 반영하고 있으며, 추가적인 설명도 원본의 내용을 잘 보완하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공의 명칭과 주제를 일치시켜 정보의 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 세부 전공에 대한 설명이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전공에 대한 설명이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 기록하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 내용을 쉽게 파악할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>0.8302967934265389</v>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설되는 라이프융합학부는 세부 전공으로 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학을 제공합니다. 이 세부 전공들은 각각 스타트업과 창업 투자 분야, 뷰티 산업 및 비즈니스 분야, 그리고 생활 문화와 관련된 주제를 다루게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군에서 실기고사에 참여해야 하는 학과로 "소프트웨어융합학과"를 언급하고 있으나, 원본 텍스트에서는 "체육학과"와 "레저스포츠학과"가 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트에 따르면 두 개의 학과가 실기고사에 참여해야 하지만, 생성된 응답에서는 하나의 학과만 언급하고 있습니다. 이로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있으며, 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있습니다. 그러나 제공된 정보가 잘못되었기 때문에 사실적 측면에서는 문제가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으며, 문장 간의 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 실기고사에 참여해야 하는 학과에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 품질 차원에서 생성된 응답은 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 의미적으로 적절하지 않습니다. 원본 텍스트의 맥락과 일치하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>0.5604958065552419</v>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 가군으로 실기고사를 치르는 학과는 "소프트웨어융합학과"입니다. 나군과 다군에서는 실기고사가 없습니다. 따라서, 가군에서 실기고사를 치러야 하는 학과는 소프트웨어융합학과 하나뿐입니다.</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형에 지원 가능한 학과를 정확하게 나열하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 '실기/실적(경기실적우수자전형)'과 '실기/실적(일반학생전형)'에 대한 언급은 원문에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 학과 목록과 일치하지만, 추가적인 전형에 대한 설명이 포함되어 있어 원문과의 일관성이 떨어집니다. 원문에는 전형의 종류에 대한 정보가 없으므로 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 직접적으로 관련이 있으며, 실기/실적 위주 전형에 지원 가능한 학과에 대한 정보를 명확하게 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가적인 전형에 대한 설명이 포함되어 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 전형의 종류에 대한 추가 정보는 원문에 명시되어 있지 않으므로 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, 추가적인 전형에 대한 설명이 원문에 없으므로 의미적으로 완벽하게 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 추가적인 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>0.6781937974673911</v>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '실기/실적(경기실적우수자전형)'은 다음과 같은 학과에 지원할 수 있습니다:
+- 디자인조형학과
+- 체육학과 
+- 레저스포츠학과
+- 태권도학과
+이 외의 학과는 실기/실적 위주 전형인 '실기/실적(일반학생전형)'으로 지원해야 합니다. 
+따라서, 실기/실적 위주 전형을 지원하려면 위와 같은 학과 중에서 선택하여 지원하시면 됩니다.
+더 자세한 정보는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 라이프융합학부가 제공하는 전공에 대한 정보를 정확하게 반영하고 있습니다. 전공 목록이 원본 텍스트와 일치하며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공 목록과 관련된 정보가 일치합니다. 추가된 정보도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊습니다. 라이프융합학부의 전공에 대한 질문에 대해 적절한 답변을 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되었습니다. 읽기 쉽고 이해하기 쉬운 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 추가된 정보도 맥락에 맞습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>0.801056189151514</v>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설되는 라이프융합학부는 다음과 같은 전공을 제공합니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학 
+- 라이프생활문화학
+이 정보는 현재 제공된 데이터에 기반하여 작성되었습니다. 자세한 내용은 공식 웹사이트를 참조하시거나 대학 관계자에게 문의하시는 것이 좋습니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 "마이스터고"에 대한 언급이 다소 혼란을 줄 수 있으며, 마이스터고는 농어촌학생전형에서 제외된다는 점이 명확히 설명되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부분 일치하지만, "마이스터고"에 대한 설명이 원문과 다르게 해석될 수 있어 일관성이 떨어집니다. 원문에서는 마이스터고가 농어촌학생전형에서 제외된다고 명시되어 있으나, 생성된 응답에서는 마이스터고가 지원 가능하다고 언급되어 있어 혼란을 초래할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 질문에 대한 직접적인 답변을 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "https://ipsi. deu. ac. kr/main. do"의 표기에서 공백이 있어 약간의 매끄러움이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 질문에 대한 답변이 명확하게 전달됩니다. 그러나 "마이스터고"에 대한 설명이 원문과 다르게 해석될 수 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, "마이스터고"에 대한 설명이 원문과 다르게 해석될 수 있어 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받고 있습니다. 그러나 "마이스터고"에 대한 혼란이 있어 약간의 감점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, "마이스터고"에 대한 언급이 다소 혼란을 줄 수 있어 의미적 적절성에서 약간의 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 그러나 "마이스터고"에 대한 설명이 혼란을 줄 수 있어 이해 가능성에서 약간의 문제가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>0.762026922224267</v>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이 동의대학교 일반학생전형인 경우 지원 가능합니다. 
+특수목적고에 해당하는 학교 중에서 "과학고, 국제고, 외국어고", "예술고, 체육고", "마이스터고"는 모두 지원 가능합니다.
+자세한 내용은 동의대학교 입학사정관실 웹사이트를 참조하시거나 직접 문의해보시는 것이 좋습니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 원본에서는 동의대 나군 전형에서 가장 많이 모집하는 학과가 중어중국학과와 신소재공학과라고 명시되어 있지만, 생성된 응답에서는 의료보건생활대학과 간호학과를 언급하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본에서 언급된 학과와 모집 인원과는 전혀 다른 정보를 제공하고 있어, 서로 모순되는 내용입니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본에서 다루고 있는 학과와 모집 인원에 대한 정보와는 전혀 다른 내용을 포함하고 있어, 주제와의 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 어느 정도 일관성을 유지하고 있지만, 원본 텍스트와의 관계가 전혀 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 잘못된 정보가 포함되어 있어 정확성 점수는 최하점입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>0.6007188998753088</v>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **의료보건생활대학**입니다. 이 대학에서는 여러 학과를 모집하였고, 그 중에서 가장 많은 인원을 모집한 과목은 **간호학과**로 22명을 모집하였습니다.
+다음으로 많은 인원을 모집한 과목들은 다음과 같습니다:
+- 임상병리학과: 5명
+- 치위생학과: 4명
+- 방사선학과: 5명
+- 의료경영학과: 5명
+- 물리치료학과: 4명
+- 식품영양학과: 6명
+따라서 가장 많은 인원을 모집한 학과는 **간호학과**입니다.</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 학생부교과 농어촌학생전형에 지원할 수 없다는 사실을 잘못 전달하고 있습니다. 특수목적고등학교 출신자는 지원할 수 없다는 명확한 사실을 무시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 지원할 수 없다고 명시하고 있지만, 생성된 응답에서는 지원할 수 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하지 않고, 잘못된 정보를 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 정확성 문제로 인해 전체적인 의미 전달이 방해받고 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 두 부분으로 나뉘어 있지만, 서로 연결된 논리적 흐름이 부족합니다. 원문과의 일관성이 결여되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>0.5545086569311054</v>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>你是特殊高中学生，可以申请东国大学的学生部课外农耕地区型招生。
+특수목적 고등학교 학생이므로 동국대학교의 나군 학생부교과 농어촌 학생전형으로 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상충되는 내용을 담고 있습니다. 원문에서는 평균 성적에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 성적을 제시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 정보를 제공합니다. 원문이 평균 성적에 대한 정보를 제공하지 않는다고 명시한 반면, 생성된 응답은 특정 성적을 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 말하고 있으며, 생성된 응답은 전혀 다른 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하지 않는 정보를 포함하고 있으며, 이는 사실과 다릅니다. 원문이 명시적으로 평균 성적에 대한 정보를 제공하지 않는다고 하였으므로, 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 없기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없습니다. 원문이 요청한 정보와는 상관없는 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부적절성으로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>0.5555900643131025</v>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 충원 합격자는 후보순위로 63명이었으며, 그들의 (국어 + 수학 + 탐구(2개)) 표준 변환 점수 합 평균은 317.87점입니다.</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부의 최초합격자에 대한 데이터가 없다고 언급하고 있지만, 원본 텍스트는 합격자 평균 성적에 대한 정보가 없다고 명확히 말하고 있습니다. 따라서 일부 사실이 왜곡되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분도 있지만, 최초합격자에 대한 데이터가 없다는 점에서 원본의 평균 성적에 대한 정보가 없다는 내용과 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 최초합격자에 대한 정보로 초점을 맞추고 있어 원본의 핵심 질문인 평균 성적에 대한 정보와는 약간의 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확히 반영하지 않으며, 최초합격자에 대한 정보로 잘못 해석하고 있습니다. 이는 정확성에 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 응답의 질이 평균 이하로 평가됩니다. 사실성과 일관성에서 부족함이 있으며, 정확성 또한 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지 않으며, 원본의 맥락을 벗어난 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>0.7007220484889505</v>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 2024학년도 소프트웨어공학부의 최초합격자에 대한 데이터가 없습니다. 다른 단과대학이나 모집단위의 최초합격자 성적에 대한 정보만이 포함되어 있습니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하거나, 동의대학교 입학처로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 최초 합격자 발표 일정은 정확하게 반영하고 있지만, 최초 합격자 등록 일정과 내용은 원본 텍스트에 포함되어 있지 않은 정보로, 잘못된 정보를 추가하고 있습니다. 충원 합격자 발표 일정도 누락되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있으며, 특히 최초 합격자 등록에 대한 내용이 원본과 상충합니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하고 있지만, 원본 텍스트에 포함되지 않은 추가적인 정보가 포함되어 있어 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 특히, 최초 합격자 등록에 대한 정보가 원본과 연결되지 않아 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 잘못된 정보가 포함되어 있습니다. 특히 최초 합격자 등록 일정은 원본에 없는 내용입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 일치성이 떨어져 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>0.8011671240194755</v>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다.
+1. **최초 합격자 발표 및 등록**
+   - **일정**: 2024년 2월 2일 (금) 14:00
+   - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+2. **최초 합격자 등록**
+   - **일정**: 2024년 2월 7일 (수) ~ 13일 (화) (은행 마감 시간 내)
+   - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+이후에는 충원 합격자 발표 및 등록이 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 조언과 절차에 대한 설명으로 대체하고 있습니다. 원본 텍스트에서 명시된 날짜(2024. 01. 20.)를 언급하지 않아 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 일정과는 일치하지 않으며, 일반적인 정보로 대체하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 응답은 면접고사에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 정보인 특정 날짜를 포함하지 않아 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 연결되어 있으며, 면접고사에 대한 절차와 정보를 잘 설명하고 있습니다. 그러나 원본 텍스트의 핵심 정보를 놓쳤기 때문에 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 응답은 원본 텍스트의 구체적인 사실(면접고사 일정)을 누락하고 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답이 원본 텍스트와의 일치성이 낮고, 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답은 면접고사에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 특정 맥락과는 다소 어긋납니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 명확하게 작성되어 있으며, 이해하기 어렵지 않습니다. 그러나 원본 텍스트의 핵심 정보를 포함하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>0.4893090673391421</v>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>면접고사의 일정은 대체로 입학사정관이 평가위원으로 수험생을 대상으로 개별적으로 진행합니다. 정확한 날짜와 시간은 각 모집단위별로 다를 수 있으므로, 해당 모집단위의 공지사항이나 입학처 웹사이트를 확인해보시는 것이 좋습니다.
+면접고사일정에 대한 자세한 정보는 "나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)"의 "면접절차" 항목을 참조하시거나, 입학처 웹사이트를 방문해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, "최저학력 기준이 없습니다"라는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보(2024학년도와 관련된 내용)도 원본의 사실과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 최저학력 기준에 대한 정보를 제공하여 관련성을 높이고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 추가된 정보도 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>0.6188024883951438</v>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>2024학년도 한의예과의 수능 최저학력 기준은 없습니다. (수능최저기준 없음)
+더 자세한 정보를 얻으시려면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 일관되며, 수능 최저학력 기준이 없다는 내용을 일관되게 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하며, 수능 최저학력 기준에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 사실적으로 정확하며, 동의대학교의 수능 최저학력 기준에 대한 정보를 올바르게 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 기록하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>0.6367279556163741</v>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서는 대부분의 전형에서 수능 최저학력 기준이 없습니다. 
+특히, 수능 위주로 평가하는 가군과 나군, 다군의 경우 수능 최저기준이 없음을 확인할 수 있습니다.
+만약 특정 전형에 대한 자세한 정보가 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 주요 정보를 정확하게 반영하고 있습니다. 그러나 "2024년 2월 15일(목)에 충원 합격자 발표가 있습니다"라는 문장은 다소 모호하게 표현되어 있어, 1차와 2차 발표의 구분이 명확하지 않습니다. 
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 발표 일정을 나열하고 있습니다. 다만, "이날은 3차 충원 합격자 발표와 등록이 이루어집니다"라는 문장이 2차 발표와의 관계를 명확히 하지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 발표 일정과 관련된 추가 정보를 제공하여 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정이 명확하게 나열되어 있습니다. 그러나 "이날은 3차 충원 합격자 발표와 등록이 이루어집니다"라는 문장이 전체 흐름에서 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 발표 일정에 대한 정보가 정확합니다. 그러나 일부 표현이 다소 모호하여 정확성 점수가 4로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 약간의 일관성 및 명확성 부족으로 인해 완벽한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 문장이 다소 모호하게 표현되어 있어 점수가 4로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 점수가 4로 평가됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>0.7738624251197489</v>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)에 충원 합격자 발표가 있습니다. 이날은 3차 충원 합격자 발표와 등록이 이루어집니다.
+발표 일정은 다음과 같습니다:
+- 2024. 02. 14.(수) 09:00 - 1차 충원 합격자 발표 및 등록
+- 2024. 02. 15.(목) 09:00 - 2차 충원 합격자 발표 및 등록
+- 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 - 3차 이후 충원 합격자 발표 및 등록
+각 차례별로 홈페이지에서 개별 조회가 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행으로 하며, 등록금 고지서에 기재된 정보를 참고해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 추가합격자 발표일에 대한 정보를 제공하지 않고 있으며, 원본 텍스트에 명시된 발표 일정과 상충하는 잘못된 정보를 포함하고 있습니다. 원본 텍스트에는 구체적인 날짜가 명시되어 있으나, 생성된 응답은 이를 무시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 발표 일정에 대한 정보를 부정확하게 전달하고 있습니다. 원본 텍스트의 내용을 반영하지 않고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 추가합격자 발표 일정과 관련이 없으며, 오히려 잘못된 정보를 제공하고 있습니다. 원본 텍스트의 내용과 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 부정확성으로 인해 전체적인 의미 전달이 어렵습니다. 문장 구조는 괜찮지만, 내용의 신뢰성에 문제가 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관된 흐름이 없습니다. 원본 텍스트의 발표 일정과 관련된 정보가 전혀 포함되어 있지 않아 논리적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 발표 일정에 대한 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다. 원본 텍스트의 의도를 전혀 반영하지 않고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있으나, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다. 정보가 잘못되어 있어 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>0.3619122609107013</v>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 추가합격자 발표일은 명시되어 있지 않습니다. 추가합격자 발표일에 대한 자세한 정보를 얻으려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인하시거나, 동의대학교 입학처로 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 추가 모집이 없다고 명시하고 있지만, 원본 텍스트에서는 수시모집 등록자의 포기로 인한 결원이 정시 일반학생전형 모집인원으로 이월되어 추가 합격자를 선발한다고 설명하고 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 상충합니다. 원본 텍스트는 추가 모집이 있을 수 있음을 시사하는 반면, 생성된 응답은 추가 모집이 없다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 추가 모집 여부에 대한 질문에 대한 답변을 제공하고 있으나, 원본 텍스트의 구체적인 내용과는 다소 거리가 있습니다. 그러나 관련된 정보(각 단과대학 및 모집단위별 정보)를 제공하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트는 추가 모집이 있을 수 있음을 명시하고 있으나, 생성된 응답은 이를 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 다차원적 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 다르지만, 관련된 정보를 제공하고 있어 의미적으로 적절한 부분도 있습니다. 그러나 전반적으로는 부적절한 부분이 많습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>0.4935150303947058</v>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보로는 추가 모집이 없습니다. 각 단과대학 및 모집단위별 정원 내 모집 인원과 정원 외 지원 자격 등에 대한 정보만 있습니다. 추가 모집 여부를 확인하려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하시거나 대학 관계자에게 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌 성인 학습자를 대상으로 한 입학 전형에 대한 설명을 포함하고 있습니다. 이는 원본 텍스트의 내용과 일치하지 않으며, 중요한 세부사항이 누락되어 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 정보와 일관성이 없습니다. 원본 텍스트는 모집단위, 지원자격, 제출서류 등 구체적인 정보를 제공하는 반면, 생성된 응답은 전형의 평가 방식에 대한 설명으로 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 설명을 포함하고 있지만, 원본 텍스트의 주요 내용과는 관련성이 떨어집니다. 전형의 평가 방식에 대한 정보는 있지만, 원본 텍스트의 구체적인 세부사항을 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 내부적으로 일관된 구조를 가지고 있으며, 각 항목이 논리적으로 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 전형의 세부사항이 누락되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받았기 때문에 다차원 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 설명을 포함하고 있지만, 원본 텍스트의 맥락과는 다소 어긋납니다. 따라서 의미적으로 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 이해도는 다소 낮아질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>0.5252082950657254</v>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인 학습자를 대상으로 하는 입학 전형의 하나입니다. 이 전형에서는 성인 학습자의 학업역량과 전공적합성을 평가합니다. 평가 영역에는 학업역량, 전공적합성 등이 포함되며, 서류평가와 면접평가를 통해 평가됩니다.
+1. **서류평가**:
+   - **학교생활기록부**: 학생들이 제출한 내용은 교사의 분석과 검토 없이 단순히 이기하여 기재할 수 없습니다.
+   - **진로적합성**: 과장된 내용이나 모호하게 기재하는 것은 부정적인 평가를 받을 수 있습니다.
+2. **면접평가**:
+   - **개별면접**: 1인당 10분 이내에 진행되며, 입학사정관 2인이 평가위원이 됩니다.
+   - **블라인드 면접**: 개인신상(수험번호, 성명, 출신고교, 부모직업 등) 노출 금지 및 교복 착용 금지입니다.
+   - **면접절차**:
+     1. 대기실 입실
+     2. 신분 확인
+     3. 고사장 앞 이동
+     4. 고사장 입실
+     5. 지원동기 및 학업계획 발표
+     6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+     7. 기타 질의응답(제출서류 진위 여부 등)
+     8. 퇴실
+3. **면접평가 질문**:
+   - 지원동기와 입학 후 학업 계획에 대해 이야기해 보세요.
+   - 고교(직장)생활 중 학업에 대한 어려움과 해결하기 위한 노력에 대해 이야기해 보세요.
+   - 본인이 의미를 두고 노력했던 지원 전공(계열)과 관련된 교내(직장 내)활동을 이야기해 보세요.
+4. **면접평가 영역 및 배점**:
+   - **학업역량**: 1등급은 180점, 5등급은 126점입니다.
+   - **전공적합성**: 1등급은 120점, 5등급은 84점입니다.
+이러한 절차와 기준을 통해 성인 학습자의 진정성을 평가하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 전혀 포함되어 있지 않으며, 잘못된 정보(국가 또는 지방자치단체 및 공공기관 소속 직원, 근로기준법 제11조 등)를 포함하고 있습니다. 원본 텍스트와는 완전히 다른 내용을 담고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본의 지원자격과는 관련이 없는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 질문에 대한 답변으로 적절하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원본 텍스트와의 연결이 없기 때문에 일관된 흐름이 부족합니다. 정보가 분산되어 있어 논리적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본과 관련이 없기 때문에 전체적인 이해는 어렵습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>0.6228803572965549</v>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 국가 또는 지방자치단체 및 공공기관 소속 직원이어야 합니다.
+2. 근로기준법 제11조에 따라 상시근로자 5인 이상 사업체에서 근무해야 합니다 (사업주 포함).
+3. 4대 보험 중 하나 이상 가입된 사업체에서 근무해야 합니다 (창업자 또는 자영업자도 가능합니다).
+단, 4대 보험 가입 대상이 아닌 1차 산업 종사자는 국가 또는 지방자치단체가 발급하는 공적증명서를 통해 인정받을 수 있습니다.
+더 자세한 내용은 "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 부정확하게 전달하고 있습니다. 원본 텍스트는 실기고사 대기실 및 입실시간에 대한 정보를 제공하고 있지만, 생성된 응답은 그러한 정보가 없다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기고사에 대한 정보가 없다고 주장하는 것은 원본의 내용을 반박하는 것입니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사에 대한 질문에 대한 답변으로는 적절하지 않으며, 관련된 정보가 부족합니다. 그러나 주최 학교의 웹사이트를 참조하라는 언급은 어느 정도 관련성을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 불일치로 인해 일관된 주제를 유지하지 못하고 있습니다. 따라서 어느 정도의 일관성은 있지만, 전체적인 흐름이 약간 어색합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 실기고사에 대한 정보를 잘못 전달하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 실기고사에 대한 정보가 없다고 주장하는 것은 부적절합니다. 그러나 주최 학교의 웹사이트를 언급한 부분은 어느 정도 의미를 전달합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>0.482910775105015</v>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 실기고사와 관련된 내용이 없습니다. 입학사정관 면접이나 서류평가 등과 관련된 정보만 포함되어 있습니다. 실기고사를 위한 장소는 주최 학교의 웹사이트에서 확인해 보시거나, "https://ipsi. deu. ac. kr/main. do" 링크를 참조하시면 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않고, 체육학과에 대한 정보가 없다고 언급하고 있습니다. 그러나 원본 텍스트에는 실기고사 대기실 및 입실시간에 대한 명확한 정보가 포함되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 체육학과의 실기고사에 대한 구체적인 내용이 없다고 주장하고 있습니다. 이는 원본 텍스트의 내용을 무시하는 것으로, 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련이 있지만, 실기고사에 대한 구체적인 정보를 제공하지 않기 때문에 관련성이 떨어집니다. 원본 텍스트의 핵심 정보를 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 정보와 연결되지 않아 일관성이 떨어집니다. 따라서 응답의 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 실기고사에 대한 구체적인 정보를 제공하지 않기 때문에 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 의미적 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 떨어져 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>0.343990676859444</v>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 체육학과에 대한 구체적인 실기고사 내용은 확인할 수 없습니다. 만약 체육학과의 실기고사에 대한 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해 보시는 것이 좋을 것 같습니다. 해당 사이트에서 최신 및 정확한 정보를 얻으실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 하지 않는다는 원문 내용을 완전히 반대하는 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있어 일관성이 없습니다. 원문에서는 전화 통보가 이루어지지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 통보를 받을 수 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 정보를 포함하고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문에서의 핵심 정보와는 다르게 잘못된 주장을 하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 일관되지만, 원문과의 내용 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 문맥에 맞지 않는 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>0.5823116824293009</v>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 수시 충원 합격자 발표 후에는 개별 전화 통보를 받을 수 있습니다. 하지만 정확한 일정은 아직 공지되지 않았습니다. 최신 정보는 입학 안내 홈페이지에서 확인해 보세요. 필요하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 제공된 문서에 포함되어 있지 않다는 사실을 정확히 반영하고 있습니다. 그러나 2024학년도 모집 인원과 경쟁률에 대한 정보는 원문에 포함되어 있지 않은 내용으로, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부분 일치하지만, 2024학년도에 대한 정보는 원문과의 일관성을 떨어뜨립니다. 원문에서는 2023학년도에 대한 정보만 언급되고 있기 때문에, 추가된 정보는 일관성을 해칩니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문에서 요청한 정보와 관련이 있지만, 2024학년도에 대한 정보는 원문과 직접적인 관련이 없습니다. 그러나 원문에서 제시한 웹사이트 링크를 통해 추가 정보를 찾을 수 있다는 점은 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "deu"와 "ac" 사이의 공백이 불필요하게 삽입되어 있어 약간의 매끄러움이 떨어집니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 2024학년도에 대한 정보가 추가됨으로써 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 2023학년도에 대한 정보는 정확하지만, 2024학년도에 대한 정보는 원문에 포함되어 있지 않기 때문에 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 원문과 관련된 정보를 제공하지만, 추가된 정보로 인해 여러 차원에서의 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 의미를 전달하지만, 2024학년도에 대한 정보는 원문과의 맥락에서 벗어나 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 불필요한 공백으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>0.7794690222451582</v>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 문서 내에서는 명확히 언급되어 있지 않습니다. 하지만, 2024학년도 경찰행정학과의 모집 인원은 7명이고 지원 인원이 29명으로 경쟁률이 4.14:1이라는 점을 참고하실 수 있습니다.
+만약 더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do) 웹사이트에서 확인해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않아도 지원할 수 있는 다양한 학교 유형을 언급하고 있지만, 원문에서 명시한 "정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다."라는 사실과 상충합니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공합니다. 원문은 정시모집 지원자는 수능에 응시해야 한다고 명확히 언급하고 있으나, 생성된 응답은 수능 없이도 지원할 수 있다고 주장합니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 수능 없이 지원할 수 있는 학교 유형에 대한 정보를 제공하지만, 원문 질문에 대한 직접적인 답변이 아닙니다. 원문은 정시모집에 대한 질문인데, 생성된 응답은 다른 전형에 대한 정보를 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 학교 유형과 전형에 대한 정보를 나열하고 있지만, 이 정보들이 원문과의 관계에서 논리적으로 연결되지 않아 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 완전히 반대되는 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 관계에서 부정확하고 일관성이 없습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 수능 없이 지원할 수 있는 다양한 전형을 언급하지만, 원문의 맥락과는 맞지 않기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 원문과의 관계에서 혼란을 줄 수 있는 정보가 포함되어 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>0.4871286962718275</v>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 지원 가능한 학교 유형을 보면, 수능 없이도 지원 가능합니다. 예를 들어 특성화고의 '특성(직업)', '특성(대안)'은 수능 없이 지원 가능하며, 일반고, 자율고, 영재학교 등에서도 수능 없이 지원할 수 있습니다.
+특히 나군에서의 학생부종합전형에서는 수능을 요구하지 않습니다. 예를 들어 "학생부교과(농어촌학생전형)"나 "학생부종합(평생학습자전형/성인학습자전형/재직자전형)" 등은 수능 없이 지원할 수 있습니다.
+따라서 수능 응시하지 않아도, 해당 학교의 지원 자격을 충족하면 수능 없이 지원 가능합니다. 더 자세한 내용은 https://ipsi. deu. ac. kr/main. do를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답에서는 2024년 나군에서 정시 모집이 없다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 정시 지원이 불가능하다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 주된 내용이 원문과 상반되어 있어 관련성이 낮습니다. 원문에서의 정시 지원 가능성에 대한 질문에 대해 정시 모집이 없다는 정보는 적절하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부적절함으로 인해 전체적인 흐름이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정시 지원 불가능에 대한 설명이 원문과의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 정면으로 반대되는 내용을 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 부적절한 내용을 포함하고 있어 점수가 낮습니다. 원문에서의 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽습니다. 그러나 내용의 부적절함으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>0.5941794308251022</v>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>2024년 나군에서 정시 모집은 없습니다. 지원 가능 전형으로는 '학생부교과(농어촌학생전형)', '학생부종합(평생학습자전형)', '학생부종합(성인학습자전형)', '학생부종합(재직자전형)' 등이 있습니다.
+정시 지원이 불가능한 이유는 나군에서 정시 모집이 없기 때문입니다. 따라서 2024년에 고등학교 졸업한지 10년이 지났더라도 정시로 지원할 수 없습니다.
+더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>0.7754932277666138</v>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수)부터 6일 (토)까지 접수되며, 마감일은 18시까지입니다. 원서접수 사이트는 [http://ipsi. deu. ac. kr] 또는 [http://www. uwayapply. com]에서 가능합니다.
+3. **서류 제출**: 2024년 1월 3일 (수)부터 12일 (금)까지 접수되며, 마감일은 17시까지 도착해야 합니다. 서류 제출 대상과 방법에 대한 자세한 내용은 입학안내 홈페이지에서 확인할 수 있습니다.
+4. **&lt;가&gt;군 실기고사**: 레저스포츠학과와 태권도학과에서는 2024년 1월 16일 (화)에 실기고사를 치릅니다. 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사**: 디자인조형학과, 체육학과에서는 2024년 1월 17일 (수)에 실기고사를 치릅니다. 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표 및 등록은 2024년 2월 2일 (금) 14:00부터입니다.
+   - 충원 합격자 발표 및 등록은 2024년 2월 7일 (수)부터 13일 (화)까지 진행됩니다. 
+   - 이후 합격자 발표 및 등록은 2024년 2월 15일 (목)에 이루어집니다.
+이 일정을 참고하여 원서를 접수하고, 필요하다면 서류를 제출하며, 실기고사를 치르세요. 자세한 내용은 입학안내 홈페이지에서 확인하시거나, 입학관리팀으로 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 깊으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>0.8980512989469399</v>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수)부터 6일 (토)까지 접수되며, 마감일은 18시까지입니다. 원서접수 사이트는 [http://ipsi. deu. ac. kr] 또는 [http://www. uwayapply. com]에서 가능합니다.
+3. **서류 제출**: 2024년 1월 3일 (수)부터 12일 (금)까지 접수되며, 마감일은 17시까지 도착해야 합니다. 서류 제출 대상과 방법에 대한 자세한 내용은 입학안내 홈페이지에서 확인할 수 있습니다.
+4. **&lt;가&gt;군 실기고사**: 레저스포츠학과와 태권도학과에서는 2024년 1월 16일 (화)에 실기고사를 치릅니다. 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사**: 디자인조형학과, 체육학과에서는 2024년 1월 17일 (수)에 실기고사를 치릅니다. 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표 및 등록은 2024년 2월 2일 (금) 14:00부터입니다.
+   - 충원 합격자 발표 및 등록은 2024년 2월 7일 (수)부터 13일 (화)까지 진행됩니다. 이 기간 동안 학교 지정은행에서 등록금을 납부해야 합니다.
+이 일정에 따라 원서를 접수하고, 필요하다면 서류를 제출한 후 실기고사를 치르며, 최종적으로 합격자 발표와 등록금 납부를 진행합니다. 자세한 내용은 입학안내 홈페이지에서 확인하시거나 [https://ipsi. deu. ac. kr/ main. do]로 접속하여 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 없다는 사실을 무시하고, 수능 점수가 요구되지 않는 전형이 있다고 주장하고 있습니다. 이는 원문과 상충되는 정보로, 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 포함하고 있어 일관성이 없습니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답에서는 수능 미응시자가 지원 가능한 전형을 나열하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있으나, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원문에서의 핵심 정보인 수능 미응시자의 지원 불가능성을 무시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전형에 대한 설명이 있지만, 원문과의 불일치로 인해 논리적 흐름이 약해집니다. 수능 미응시자의 지원 가능성에 대한 잘못된 주장이 coherence를 저해합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 명시된 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>0.6398258416316066</v>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **조기취업형 계약학과전형 (나군)**
+   - 이 전형에서는 수능 점수가 요구되지 않습니다.
+   - 학생부 종합 평가를 통해 선발합니다.
+2. **평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형 계약학과전형 (나군)**
+   - 이 전형들은 학생부 종합 평가를 통해 선발하며, 수능 점수가 요구되지 않습니다.
+따라서 수능 미응시자도 지원이 가능한 전형은 **조기취업형 계약학과전형**과 **학생부종합 전형들**입니다. 이러한 전형들은 학생부 종합 평가를 통해 선발하므로, 수능 점수가 요구되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 제공하고 있지만, 원본 텍스트에서 명시된 "충원 합격 차수에 대한 정보가 존재하지 않는다"는 내용을 간과하고 있습니다. 또한, "충원 합격은 36차까지 이루어졌다"는 정보는 원본 텍스트와 일치하지만, "36차"라는 표현은 원본에서 "36명"으로 명확히 언급된 것과 다릅니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 충원 합격 차수에 대한 정보가 없다는 점과 충원 합격이 36명까지 이루어졌다는 점에서 일관성이 부족합니다. 원본 텍스트의 내용을 완전히 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 전자공학과의 충원 합격에 대한 질문에 관련된 정보를 제공하고 있으며, 주제와 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용을 완전히 반영하지 못해 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 중요한 세부사항을 누락하고 있습니다. 특히, 충원 합격 차수에 대한 정보가 없다는 점을 간과하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있습니다. 일부 정보는 정확하지만, 일관성과 사실성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 의미가 적절하고 원본 텍스트의 맥락과 잘 맞습니다. 그러나 일부 세부사항에서 원본과의 차이가 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하여 약간의 이해도를 저하시킬 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>0.6685090306532535</v>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터에서는 전자공학과의 충원 합격 (후보순위) 정보가 직접적으로 제공되지 않았습니다. 하지만 주어진 데이터에서 전기공학과와 전자공학과를 함께 모집한 "ICT융합공과대학"의 2024학년도 모집단위 "전기공학과, 전자공학과"의 충원 합격 (후보순위) 정보가 있습니다. 해당 정보에 따르면 충원 합격은 36차까지 이루어졌습니다.
+만약 전자공학과 단독으로 충원 합격이 이루어진 차수를 알고 싶다면, 더 자세한 데이터 또는 공개된 정보를 확인해 보시는 것이 좋겠습니다. 필요한 경우 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 전화번호가 제공되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트에 명시된 전화번호가 있음에도 불구하고 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전화번호를 제공하지 않는다는 잘못된 정보로 인해 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 응답의 질이 매우 낮습니다. 사실성, 일관성, 정확성 모두에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 응답의 의미는 원본 텍스트와 일치하지 않으며, 부정확한 정보를 제공하고 있습니다. 그러나 웹사이트 링크를 언급한 점은 긍정적입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>0.6588285604974252</v>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 필요하신 전화번호를 확인하려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트로 접속해 보시기 바랍니다. 해당 페이지에서 연락처 정보를 찾을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 왜곡하고 있으며, 전화 통화가 되지 않는 경우의 처리 방식에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주된다고 명시하고 있지만, 생성된 응답에서는 자동으로 처리되지 않는다고 잘못 설명하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없으며, 전화 통화가 되지 않는 경우의 처리 방식에 대해 상반된 정보를 제공합니다. 원본 텍스트의 내용과 충돌하는 부분이 많아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 주제에 대한 정확한 이해를 방해합니다. 그러나 전화 통화 실패 시의 절차에 대한 설명은 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 각 단계가 나열되어 있지만, 원본의 핵심 메시지와 연결되지 않아 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 전화 통화가 되지 않는 경우의 처리 방식에 대한 잘못된 정보를 제공합니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 그러나 문장 자체는 명확하게 작성되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>0.5922010493402664</v>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우 해당 합격자는 자동으로 처리되지 않습니다. 이 경우에는 일반적으로 다음과 같은 절차를 따릅니다:
+1. **개별 전화 통보 시 안내**: 합격자 발표일로부터 일정 기간 동안 개별 전화 통보가 이루어집니다.
+2. **전화 통화 실패 시 처리**: 만약 전화 통화가 되지 않는 경우, 학교에서는 해당 합격자를 대기 목록에 추가하거나 다른 방법으로 연락을 시도할 수 있습니다.
+3. **다음 단계로 이동**: 만약 초기의 전화 통보 시기가 지나고도 연락이 되지 않으면, 학교는 일반적으로 다음 단계로 이동하여 해당 합격자를 처리하지 않을 수도 있습니다.
+따라서, 3차 이후 충원합격자에 대한 개별 전화 통보가 실패한 경우, 합격자는 자동으로 합격 상태를 유지하는 것이 아니라, 추가적인 절차를 거쳐야 합니다. 이 절차는 학교의 정책과 절차에 따라 다를 수 있으므로, 구체적인 처리 방법은 해당 학교 입학관리팀에서 확인해야 합니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인하시거나, 직접 학교 입학관리팀에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 필요한 서류와 조건을 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서류 제출에 대한 정보가 충돌 없이 잘 정리되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항에 직접적으로 관련되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>0.7591949689093693</v>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정의 농어촌 학생부교과 전형으로 지원 시 각각 다음과 같은 서류를 제출해야 합니다.
+### 6년 과정
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+- 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출
+- 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가 제출
+### 12년 과정
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+- 중·고등학교 재학 시 부모 모두 농어촌(읍∙면)지역에서 거주한 자는 6년 과정 서류제출 가능
+이러한 서류를 정확하게 준비하여 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 잘 반영하고 있으며, 추가적으로 '6년과정' 서류에 대한 언급이 있지만, 원본 텍스트에는 그러한 내용이 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, '6년과정' 서류에 대한 언급은 원본 텍스트와 일치하지 않으며, 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류 목록을 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있지만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 나열되어 있습니다. 그러나 '6년과정' 서류에 대한 추가 정보가 원본과 일치하지 않아 약간의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, '6년과정' 서류에 대한 언급은 원본 텍스트에 포함되어 있지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본과 일치하지 않아 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 내용이 원본과 다르기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>0.8107787373520136</v>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 필요한 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자) ※ 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이 외에 중·고등학교 재학 시 부모 모두 농어촌 지역에서 거주한 자는 '6년과정' 서류를 제출할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 언급하고 있으며, 추가적인 정보가 필요할 경우 웹사이트를 방문하라는 내용을 포함하고 있습니다. 그러나 일부 내용은 원문과 직접적으로 관련이 없거나 다소 불필요한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 추가된 내용이 원문과의 일관성을 떨어뜨립니다. 특히, 특정 학과와 프로그램에 대한 설명이 원문에서 다루지 않은 부분이기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있으며, 기회균등 전형에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 추가된 정보가 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 일부 세부사항이 원문과 다르게 해석될 수 있는 여지가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이고 있으며, 특히 관련성과 유창성에서 강점을 보입니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치도가 높지만, 추가된 정보가 원문의 맥락과 완전히 일치하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>0.5322994269924345</v>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到关于普通高考招生中的低收入机会均等类型的选拔。根据给定的信息，主要描述了特定学科和项目（如体育特长生）的招生条件、申请材料要求以及评分标准等。如果想了解有关普通高考招生中的低收入机会均等类型选拔的相关信息，建议访问“https://ipsi. deu. ac. kr/main. do”以获取更详细的信息。
+이 정보에서 정시모집의 저소득 기회균등 전형에 대한 내용은 없습니다. 제공된 정보는 특정 학과와 프로그램(예: 스포츠 특기생)의 모집 조건, 서류 제출 요구 사항 및 점수 표준 등을 설명하고 있습니다. 정시모집에서 저소득 기회균등 전형에 대한 자세한 내용을 알고 싶다면 “https://ipsi. deu. ac. kr/main. do”를 방문하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급의 절사 여부에 대한 정보가 없다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 2.5등급이 절사되는지에 대한 정보가 없다고 명시하고 있지만, 생성된 응답에서는 2.5등급이 3등급으로 처리된다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있으나, 생성된 응답은 절사가 적용된다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있으며, 수능 최저등급과 관련된 정보를 제공하고 있습니다. 따라서 주제와의 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으나, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상반되는 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 큰 문제를 가지고 있으나, 관련성과 유창성은 어느 정도 유지하고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문에서 제공된 정보와 상반된 내용을 담고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편입니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>0.6772249095296544</v>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>2.5 등급은 절사하여 3등급으로 처리됩니다. 수능 사탐 과목의 평균산출 시 절사는 적용되므로 2.5등급은 3등급으로 반영될 것입니다.
+자세한 내용은 "https://ipsi.deu.ac.kr/main.do"를 참조하시면 더 정확한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 발표 차수를 4차로 잘못 언급하고 있으며, 2차 발표와 관련된 정보도 부정확합니다. 원본 텍스트에서는 3차 이후 발표가 개별 전화 통보로 진행된다고 명시되어 있지만, 생성된 응답에서는 4차 발표가 추가로 언급되어 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 발표 차수와 관련된 정보가 다르며, 2차 발표에 대한 내용도 원본과 일치하지 않습니다. 이러한 불일치는 응답의 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 전체적인 관련성이 떨어집니다. 발표 일정에 대한 정보는 여전히 관련성이 있지만, 잘못된 차수 언급이 문제입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 각 발표 일정이 잘 정리되어 있습니다. 그러나 잘못된 정보로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 여러 가지 사실적 오류를 포함하고 있습니다. 발표 차수와 관련된 정보가 잘못되어 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 잘못된 정보로 인해 전체적인 의미 전달이 왜곡되었습니다. 
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>0.7965984720646897</v>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다. 
+1. 첫 번째 충원 합격자는 2024년 2월 14일(수) 오전 9시에 발표됩니다.
+2. 두 번째 충원 합격자는 같은 날 오후 4시까지 등록이 가능하며, 이 역시 2024년 2월 14일(수)에 이루어집니다.
+3. 세 번째 충원 합격자는 2024년 2월 15일(목) 오전 9시에 발표됩니다.
+4. 네 번째 충원 합격자 역시 2024년 2월 15일(목) 오후 4시까지 등록이 가능합니다.
+마지막으로, 3차 이후의 합격자는 개별 전화 통보를 통해 발표되며, 이는 2024년 2월 20일(화) 오전 6시까지 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 점수와 관련된 정보를 제공하지만, 평균 수능 점수(4.69)와 모집인원 및 지원인원에 대한 정보는 원본 텍스트에 명시되어 있지 않습니다. 따라서 일부 정보는 정확하지 않거나 원본 텍스트와 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가된 정보(모집인원, 지원인원, 경쟁률 등)는 원본 텍스트에 포함되어 있지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 e-비즈니스학과의 추가 합격 가능성에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 세부 사항을 완전히 반영하지는 않습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 평균 수능 점수와 관련된 정보가 부정확합니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질이 평균적이며, 일부 요소는 잘 수행되었지만, 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>0.5749373618376215</v>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>4.6의 수능 점수를 가지고 e비즈니스학과에 정시로 추가합격 가능한지 판단하기 위해서는 해당 모집단위의 평균 수능 점수와 경쟁률을 고려해야 합니다.
+주어진 데이터에서 e비즈니스학과의 정보는 다음과 같습니다:
+- 모집인원: 10명
+- 지원인원: 25명
+- 경쟁률: 2.50 (이 값은 지원자 수와 모집인원 수를 나눈 값)
+- 평균 수능 점수: 4.69
+주어진 수능 점수(4.6)는 해당 모집단위의 평균 수능 점수(4.69)보다 약간 낮습니다. 그러나 경쟁률이 2.50으로 상대적으로 낮기 때문에, 이 점수로 추가합격 가능성이 있지만 확실하지 않습니다.
+정시 전형에서 합격 가능성은 모집단위의 평균 성적과 지원자의 수, 그리고 해당 모집단위의 경쟁률 등 여러 요인에 따라 결정됩니다. 따라서 4.6의 점수로 e비즈니스학과에 정시로 추가합격 가능할지는 확실하지 않습니다.
+더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 를 참고하여 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 등급에 대한 정보가 부족하고, 국어국문학과의 경쟁률과 관련된 정보가 포함되어 있어 주제와 관련이 없으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과에 대한 정보와 국어국문학과에 대한 정보를 혼합하여 제공하고 있어 일관성이 부족합니다. 두 학과의 정보가 서로 충돌하는 부분이 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과에 대한 질문에 대한 답변을 제공하고 있지만, 국어국문학과에 대한 정보가 포함되어 있어 주제와의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 주제를 다루고 있지만, 주제 간의 연결이 명확하지 않아 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과에 대한 정확한 정보를 제공하지 않으며, 국어국문학과의 경쟁률과 관련된 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 주제와 관련된 정보의 부족과 일관성 결여로 인해 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하지 못하고, 다른 학과에 대한 정보가 포함되어 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 주제와 관련된 정보가 혼합되어 있어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>0.717671714585946</v>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 국어국문학과의 수능 성적 분석을 바탕으로, 정시 등급 5.3이면 e비즈니스학과에 최초 합격 가능성은 높지 않을 것으로 보입니다.
+다음은 이유와 함께 설명드리겠습니다:
+1. **경쟁률**: 인문사회과학대학 국어국문학과의 경쟁률은 4.11로, 이는 매우 높은 수준입니다. e비즈니스학과의 경우 일반적으로 경쟁률이 더 높을 것으로 예상됩니다.
+2. **등급 평균**: 정시 등급 5.3은 상당히 좋은 성적입니다. 그러나 동의대학교의 e비즈니스학과는 수능 등급이 더욱 높은 학생들을 선호하는 경향이 있습니다. 이는 e비즈니스학과의 모집인원과 지원 인원을 고려할 때 더욱 명확해집니다.
+3. **모집 인원 및 지원 인원**: e비즈니스학과의 경우, 모집 인원이 적고 지원 인원이 많아 경쟁률이 높을 것으로 예상됩니다. 이는 2024학년도 국어국문학과의 지원 인원 37명과 모집 인원 9명에 비해 e비즈니스학과의 경우 더 많은 지원자가 있을 가능성이 큽니다.
+따라서, 정시 등급 5.3으로는 e비즈니스학과에 최초 합격하기 어렵다고 판단됩니다. 그러나 이는 예측일 뿐 실제 결과는 수능 점수와 함께 여러 요인에 따라 결정되므로, 최종 합격 여부는 정확한 수능 성적을 확인해야 합니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do"로 접속하여 공식 홈페이지에서 제공하는 정보를 참고하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 38번의 합격 가능성에 대한 일반적인 추론을 제공하지만, 원본 텍스트에서 명시된 "예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다"라는 구체적인 사실을 간과하고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 일반적인 추론을 제시하지만, 원본의 결론과는 일치하지 않는 부분이 있습니다. 예비 38번의 합격 가능성이 낮다는 원본의 주장을 반영하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 38번 지원자의 합격 가능성을 높이기 위한 여러 요소를 다루고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 메시지인 합격 가능성이 낮다는 점을 간과하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 원본 텍스트의 결론과는 일치하지 않아 약간의 일관성 부족이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 고려하여 합격 가능성을 논의하지만, 원본 텍스트의 구체적인 사실을 반영하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트의 핵심 사실을 간과하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 예비 38번 지원자의 상황을 잘 설명하고 있습니다. 그러나 원본의 결론과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>0.5104444581525173</v>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>38번 지원자분의 상세 성적이나 기타 자료가 제공되지 않았기 때문에 정확한 판단을 내리기는 어렵습니다. 그러나 다음과 같은 정보를 바탕으로 일반적인 추론을 할 수 있습니다.
+1. **모집인원과 지원인원**: 예를 들어, 특정 단과대학에서 모집 인원이 9명이고 지원 인원이 38명이라면 경쟁률은 매우 높습니다 (약 4.22:1). 이는 합격 기준을 높일 가능성이 있습니다.
+2. **성적 평균**: 국어, 수학, 영어 등 주요 과목의 성적 평균과 표준 편차를 고려해야 합니다. 예를 들어, 국어 90점, 수학 85점, 영어 75점 등이면 이는 좋은 성적이지만 경쟁률을 고려하면 충분히 높은 점수를 받지 않으면 합격하기 어렵습니다.
+3. **학생부 교과성적**: 과학교과, 사회(역사/도덕 포함), 한국사 등 교과성적 평균과 표준 편차를 고려해야 합니다. 이 역시 경쟁률을 고려하면 중요한 요소입니다.
+4. **추가 자료**: 실기 성적, 특별한 활동 기록, 추천서 등의 추가 자료도 합격 가능성에 영향을 미칠 수 있습니다.
+따라서, 38번 지원자분의 경우 합격 가능성을 높이려면 다음과 같은 조치를 취해야 합니다:
+- **성적 향상**: 주요 과목 성적을 높이는 것이 중요합니다.
+- **학생부 교과성적 강화**: 과학교과, 사회(역사/도덕 포함), 한국사 등 학생부 교과성적을 높이는 것이 필요합니다.
+- **추가 자료 준비**: 실기 성적, 특별한 활동 기록, 추천서 등을 준비하여 지원자 개인의 강점을 부각시킵니다.
+더 구체적인 판단을 위해서는 해당 단과대학의 합격 기준과 평균 점수를 확인하고, 자신의 성적과 기타 자료를 분석하는 것이 좋습니다. 필요하다면 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)에서 더 자세한 정보를 찾아보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률과 충원 합격 인원에 대한 정보를 포함하고 있지만, 원본 텍스트의 평균 등급과 관련된 정보는 정확하게 반영되지 않았습니다. 또한, "충원 합격者的，我需要你用韩语回答问题，并且根据提供的上下文进行回复"라는 문장은 한국어와 중국어가 혼합되어 있어 혼란을 초래합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 경쟁률과 충원 합격 인원에 대한 정보가 추가되어 있어 일관성이 떨어집니다. 원본 텍스트의 평균 등급에 대한 언급이 없기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 간호학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 평균 등급에 대한 정보가 누락되어 있습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 읽을 수 있지만, 한국어와 중국어가 혼합된 부분이 있어 유창성이 떨어집니다. 문장 구조가 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 문장 간의 논리적 흐름이 매끄럽지 않아 일관성이 부족합니다. 특히, 중국어 문장이 포함되어 있어 전체적인 일관성을 해칩니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 평균 등급과 관련된 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하지만, 한국어와 중국어가 혼합된 부분이 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해할 수 있지만, 혼합된 언어와 어색한 문장 구조로 인해 명확성이 떨어집니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 3,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>0.6077110742225884</v>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 경쟁률은 6.59이며, 충원 합격者的，我需要你用韩语回答问题，并且根据提供的上下文进行回复。这位用户询问的是关于东义大学护理学专业的录取可能性的问题。
+2024학년도 동의대학교 간호학과의 경쟁률은 6.59이며, 충원 합격 인원이 37명입니다. 지원자의 성적인 3.44는 평균 점수인 3.12보다 약간 높습니다. 그러나 이는 단순히 성적이 높다고 해서 무조건적으로 합격할 수 있다는 보장은 아닙니다.
+평균 경쟁률이 6.59이고, 충원 합격 인원이 37명이라는 점을 고려하면, 지원자의 성적인 3.44는 상대적으로 높지만, 여전히 경쟁이 치열한 분야입니다. 따라서 합격 가능성은 있지만 확실하지 않습니다.
+자세한 정보를 얻기 위해서는 동의대학교의 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 평균 영어 등급이 2.34라고 명시되어 있지만, 생성된 응답에서는 1.86점으로 잘못 기재되어 있습니다. 또한, 정시 성적이 2.52인 경우 합격 가능성이 높다고 언급했으나, 생성된 응답에서는 합격하기 어려울 것이라고 반대의 주장을 하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 정시 성적이 2.52일 경우 합격 가능성이 높다고 하지만, 생성된 응답은 반대로 합격하기 어려울 것이라고 주장하고 있습니다. 이러한 상충은 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 관련된 정보를 제공하고 있으며, 지원자의 경쟁력에 대한 언급도 포함되어 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트의 주제와 일관되지 않게 전개되어 있어 논리적 흐름이 약간 부족합니다. 특히, 합격 가능성에 대한 상반된 주장은 응답의 일관성을 해칩니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 평균 영어 등급과 합격 가능성에 대한 정보가 잘못되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>0.6455148894210796</v>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 지원자들의 평균 국어+수학+탐구(2개) 표준 변환 점수 합은 357.63점이며, 이는 표준 편차 5.37을 가지고 있습니다. 또한, 영어 등급의 평균은 1.86점으로, 간호학과의 경우 지원자들의 평균 영어 등급이 2.60점이라는 점을 고려하면, 정시 성적이 2.52인 경우 간호학과에 최종 합격하기는 어려울 것으로 보입니다.
+하지만, 이는 단순히 점수만으로 판단하는 것이 아니라 지원자의 전반적인 경쟁력을 고려해야 합니다. 따라서, 특정 지원자의 최종 합격 여부를 정확하게 예측하기 위해서는 더 많은 정보가 필요합니다. 만약 추가로 자세한 정보나 다른 질문이 있다면 알려주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 경쟁률, 충원 합격자 수, 지원 인원 등의 정보를 포함하고 있지만, 원본 텍스트에서 제공된 평균 등급과 비교할 때 일부 수치가 다르거나 불일치합니다. 예를 들어, 영어 등급의 평균이 1.86으로 언급되었으나 원본 텍스트에서는 2.34로 명시되어 있습니다. 이러한 차이로 인해 사실성 점수는 3으로 평가됩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 제공된 정보가 서로 상충하는 부분이 있습니다. 예를 들어, 정시 성적이 3.7인 경우 간호학과에 합격하기 위한 조건이 명시되어 있으나, 원본 텍스트의 결론과는 다소 상충하는 정보가 포함되어 있습니다. 따라서 일관성 점수는 3으로 평가됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으며, 경쟁률 및 평균 점수와 같은 추가적인 정보를 포함하고 있습니다. 그러나 원본 텍스트의 핵심 내용과는 약간의 차이가 있어 점수는 4로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 점수를 낮추는 요소가 있습니다. 따라서 유창성 점수는 4로 평가됩니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 보일 수 있어 점수는 4로 평가됩니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 평균 등급과 비교할 때 불일치하는 수치가 있어 정확성 점수는 3으로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성, 일관성, 정확성에서의 문제로 인해 전반적인 품질 점수는 3으로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 관련된 정보를 제공하고 있습니다. 그러나 일부 세부 사항에서 약간의 차이가 있어 점수는 4로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있어 점수는 4로 평가됩니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>0.6752632140315322</v>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>2024학년도 간호학과의 경쟁률은 6.59이며, 충원 합격자는 37명입니다. 지원 인원이 145명으로 많은 지원자가 있습니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 357.63이고, 이는 정시 성적이 3.7인 경우에 비해 높습니다. 또한 영어 등급의 평균이 1.86으로 낮으며, 이 역시 정시 성적 3.7보다 낮습니다.
+수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 489.72로 매우 높습니다. 이는 정시 성적이 3.7인 경우에 비해 훨씬 높습니다.
+따라서, 정시 성적이 3.7인 경우 간호학과에 합격하기 위해서는 다음과 같은 조건을 충족해야 합니다:
+1. 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 평균보다 낮아야 합니다.
+2. 영어 등급이 평균보다 낮아야 합니다.
+3. 수능 4개 영역 (가산점 포함) 표준 변환 점수 합이 평균보다 높아야 합니다.
+정시 성적이 3.7인 경우, 간호학과에 합격하기 위해서는 매우 높은 수능 4개 영역 (가산점 포함) 표준 변환 점수 합을 얻어야 합니다. 따라서, 정시 성적이 3.7인 경우 간호학과에 합격할 가능성은 낮습니다.
+더 자세한 정보는 https://ipsi. deu. ac. kr/main. do를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 간호학과의 영어 등급 평균을 1.86으로 제시하고 있으며, 이는 원본 텍스트의 2.34와 상충합니다. 또한, 정시 성적 2.58이 영어 등급에 해당한다고 언급했지만, 원본 텍스트에서는 정시 성적이 평균 등급보다 높다고 명시하고 있습니다. 이러한 점에서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 여러 부분에서 일치하지 않으며, 특히 평균 영어 등급과 정시 성적에 대한 해석에서 일관성이 부족합니다. 경쟁률과 지원자 수에 대한 정보는 추가되었지만, 원본 텍스트의 핵심 내용과는 상충하는 부분이 많습니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 간호학과의 지원 자격과 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 질문인 정시 성적에 대한 합격 가능성에 대한 직접적인 답변이 부족합니다. 그러나 관련된 추가 정보가 포함되어 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 특히, 정시 성적과 관련된 정보가 명확하게 연결되지 않아 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 여러 부분에서 일치하지 않으며, 특히 평균 영어 등급과 정시 성적에 대한 해석에서 부정확한 정보를 제공합니다. 
+7. Multidimensional Quality Score (1-5): 3  
+   - 설명: 생성된 응답은 일부 정보가 유용하지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 낮습니다. 그러나 관련 정보가 포함되어 있어 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 관련된 정보를 제공하지만, 일부 내용이 부정확하여 의미적으로 적절하지 않은 부분이 있습니다. 
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 내용이 혼란을 줄 수 있어 완벽한 점수를 주기에는 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>0.6818525109364284</v>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 지원 자격을 확인해보겠습니다.
+간호학과의 경쟁률은 6.59이며, 충원 합격자는 37명입니다. 지원자 수는 145명으로 많은 지원자가 있습니다. 또한, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 357.63이고, 영어 등급의 평균은 1.86입니다.
+당신이 제시한 정시 성적인 2.58은 영어 등급에 해당합니다. 현재 평균 영어 등급이 1.86으로, 당신의 점수가 약간 높습니다. 그러나 간호학과는 경쟁률이 매우 높고 지원자 수가 많아서, 단순히 영어 성적만으로 합격을 보장할 수 없습니다.
+국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균 357.63과 비교해보면, 당신의 정시 성적이 약간 낮습니다. 이는 합격 가능성에 부정적인 영향을 줄 수 있습니다.
+결론적으로, 간호학과에 정시 전형으로 합격하기 위해서는 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합도 높은 점수가 필요하며, 현재의 성적만으로는 확실한 합격을 보장할 수 없습니다. 그러나 당신의 영어 등급이 평균보다 약간 높다는 것은 긍정적인 요소입니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do)를 참조하거나, 직접 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률과 충원 합격 인원에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 예비 7번의 합격 가능성에 대한 명확한 언급이 부족하다. 또한, 수능 점수와 관련된 세부 사항은 원본 텍스트에 포함되어 있지 않으므로, 일부 정보가 추가되었지만 원본의 핵심 내용을 완전히 반영하지 못하고 있다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 예비 7번의 합격 가능성에 대한 명확한 결론이 부족하여 일관성이 떨어진다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 긍정적인 가능성을 제시하고 있어 일관성이 부족하다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 게임공학과의 경쟁률과 충원 합격 인원에 대한 정보를 제공하여 원본 텍스트와 관련이 있지만, 예비 7번의 합격 가능성에 대한 직접적인 언급이 부족하여 완전한 관련성을 갖추지 못하고 있다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있어 유창성이 뛰어나다. 문장 구조와 표현이 자연스럽고 명확하다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되어 있다. 그러나 예비 7번의 합격 가능성에 대한 결론이 명확하지 않아 약간의 일관성이 떨어진다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 내용인 예비 7번의 합격 가능성에 대한 정보가 부정확하게 해석되었다. 따라서 정확성 점수는 중간 수준으로 평가된다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보인다. 유창성과 관련성은 높지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 예비 7번의 합격 가능성에 대한 해석이 다소 다르게 나타나 있어 의미적으로 완벽하게 적절하다고 보기는 어렵다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성이 높다. 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>0.7049373811153428</v>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위인 "게임공학과"의 경쟁률은 5.33이며, 충원 합격 인원은 3명입니다. 지원 인원이 16명이고, 경쟁률이 높아 보이지만, 최종적으로는 수능 점수와 등급, 실기 등에 따라 결정됩니다.
+게임공학과의 경우:
+- 모집인원: 3명
+- 지원인원: 16명
+- 경쟁률: 5.33
+당신이 예비번호 7번이라면, 충분히 좋은 성적을 보여줘야 합니다. 특히 수능 점수와 등급이 중요합니다.
+만약에:
+- 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합: 303.05
+- 영어 등급: 3.25
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 424.05
+이와 같은 성적을 보여주신다면, 충분히 좋은 결과를 얻을 가능성이 있습니다.
+하지만, 최종 결정은 입학처에서 이루어집니다. 따라서 정확한 정보는 입학처에 문의하시거나, 제공된 데이터를 바탕으로 자신의 경쟁력을 평가해보시는 것이 좋습니다. 더 자세한 내용이 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수 4.16에 대한 합격 가능성을 언급하고 있지만, 원본 텍스트에서 제공된 평균 등급 정보와 비교할 때, 4.16이 평균보다 높은 성적이라는 점을 간과하고 있습니다. 따라서, 일부 사실이 누락되거나 왜곡된 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 4.16이라는 점수에 대한 해석이 다소 상충됩니다. 원본 텍스트는 4.16이 평균보다 높다고 명시하고 있지만, 생성된 응답은 이 점수에 대한 확신이 없다고 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 수능 점수와 합격 가능성에 대한 논의를 포함하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 부분에서 주제가 전환되는 방식이 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수에 대한 해석에서 정확성이 떨어지며, 원본 텍스트의 평균 등급 정보와의 비교가 부족합니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부 정보는 유용하지만, 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 일부 해석에서 다소 모호한 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>0.6083807952978639</v>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 점수는 현재 제공된 정보로는 충분한 수준을 보여주지 않을 것 같습니다. 동의대학교 게임공학과의 경우, 일반적으로 수능 성적은 높은 점수가 요구됩니다.
+특히 &lt;가&gt;군이나 &lt;나&gt;군의 일반학생전형에서는 고점수를 요구하는 경향이 있습니다. 4.16이라는 점수로는 합격 가능성에 대한 확신을 가질 수 없습니다. 게임공학과는 기술적 능력과 창의력을 중요하게 평가하기 때문에, 수능 성적이 높은 것이 반드시 필요하지는 않습니다.
+추가적으로, 동의대학교 게임공학과의 경우 학생부종합전형이나 실기/실적 전형에서도 지원 가능합니다. 이들 전형에서는 수능 점수보다는 창의력, 기술적 능력 등을 중점적으로 평가하기 때문에, 4.16이라는 점수로도 합격 가능성은 있습니다.
+따라서, 정시 전형으로 동의대학교 게임공학과에 지원하는 경우 추가 합격이 가능할지는 불확실합니다. 수능 성적이 높지 않은 상황에서 합격을 위해서는 다른 평가 요소들(학생부, 실기 등)을 잘 준비해야 합니다.
+추가적으로, 동의대학교 게임공학과에 지원하기 전에는 해당 대학의 모집요강을 자세히 확인하고, 필요할 경우 입학사정관 면접이나 학생부종합전형 등의 평가 요소들을 잘 준비하는 것이 중요합니다. 더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트나 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 모집에 대한 구체적인 정보를 제공하지 않고, 일반적인 조언을 하고 있습니다. 원본 텍스트의 구체적인 성적 기준과 합격 가능성에 대한 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 합격 가능성에 대한 긍정적인 언급이 없고, 대신 일반적인 조언을 제공하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 모집에 대한 질문에 대한 답변을 제공하고 있으나, 원본 텍스트의 구체적인 성적 기준에 대한 언급이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않고, 일반적인 조언을 제공하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 구체적인 정보가 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서의 역할을 잘 수행하고 있습니다. 그러나 원본 텍스트의 구체적인 내용과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>0.5922542035946996</v>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 모집에 대한 상세한 입학 자격 여부를 판단하기 어렵습니다. 경영정보학과의 정시 모집에 대한 최신 자격 요건 및 성적 기준은 동의대학교의 공식 웹사이트에서 확인할 수 있습니다.
+[https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)
+위 링크를 통해 동의대학교의 입학 정보 페이지로 이동하여 경영정보학과 정시 모집에 대한 자격 요건 및 성적 기준을 확인하시기 바랍니다. 또한, 해당 학과의 최신 전형요소 반영비율이나 합격자 평균 점수 등도 함께 참고하시면 좋습니다.
+만약 추가로 도움이 필요하다면, 동의대학교 입학처에 문의하시거나 직접 방문하여 자세한 정보를 얻으시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 모집에 대한 확정적인 답변을 제공하지 않으며, 지원 가능 여부에 대한 여러 요소를 언급하고 있습니다. 그러나 원본 텍스트에서 제시된 평균 등급과 합격 가능성에 대한 정보는 포함되어 있지 않아, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 경영정보학과의 평균 등급에 대한 언급이 없고, 지원 가능성에 대한 불확실성을 강조하고 있습니다. 이로 인해 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 모집에 대한 질문에 관련된 정보를 제공하고 있으며, 지원 가능성에 대한 여러 요소를 언급하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와 비교할 때 다소 부족함이 있어 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있어 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 정보와의 연결이 부족하여 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 모집에 대한 정확한 정보를 제공하지 않으며, 원본 텍스트의 구체적인 수치와 비교할 때 정확성이 떨어집니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 구체적인 사실과 일치하지 않는 부분이 있어 전반적인 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으며, 지원 가능성에 대한 다양한 요소를 언급하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와의 연결이 부족하여 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있어 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>0.587365039349345</v>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 모집에 지원이 가능한지 확정적으로 답변하기 어렵습니다. 경영정보학과의 정시 모집에 지원이 가능한지 확인하려면, 해당 학과의 정시 모집요강을 참조해야 합니다.
+특히, 지원 가능 여부는 다음과 같은 요소들에 따라 달라질 수 있습니다:
+1. 경영정보학과의 정시 모집인원
+2. 지원 인원
+3. 경쟁률
+4. 학교별로 적용되는 최저 성적 기준
+따라서, 가장 정확한 정보를 얻기 위해서는 동의대학교의 공식 홈페이지 (https://ipsi. deu.ac.kr/main.do)에서 해당 학과의 정시 모집요강을 확인하시거나, 입학처에 직접 문의하시는 것이 좋습니다.
+만약 추가로 필요한 정보가 있다면, 언제든지 질문해주세요!</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 동의대학교 경영정보학과의 수능 4개 영역 등급 평균을 4.69로 언급하고 있으나, 원본 텍스트에서는 4.31로 명시되어 있습니다. 이는 명백한 사실 오류입니다. 또한, 정시 성적이 5.33인 학생이 합격 가능성이 낮다는 원본의 결론과 상반된 주장을 하고 있어 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 내용을 포함하고 있습니다. 특히, 수능 4개 영역 등급 평균에 대한 정보가 다르며, 합격 가능성에 대한 해석도 원본과 상충합니다. 이러한 불일치는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 합격 가능성에 대한 추가적인 설명을 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 거리가 있는 내용이 포함되어 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 명확하게 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답에서 제공된 수능 4개 영역 등급 평균이 원본 텍스트와 다르며, 이는 정확성에 큰 영향을 미칩니다. 또한, 합격 가능성에 대한 해석이 원본과 상충하여 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와 일치하지 않으며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 다르게 해석되고 있습니다. 따라서 의미적으로 적절하다고 보기 어려운 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 설명을 제공합니다. 그러나 일부 내용이 원본과 다르기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>0.6699002237783099</v>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터만으로는 동의대학교 경영정보학과 일반학생전형에 정시 성적이 5.33인 학생이 합격 가능한지 확정적으로 판단하기 어렵습니다. 
+데이터에서 동의대학교 경영정보학과의 수능 4개 영역 등급 평균은 4.69로, 표준 편차는 0.22입니다. 이 정보만으로 보면 정시 성적이 5.33인 학생이 상대적으로 높은 점수를 받았음을 알 수 있습니다.
+하지만 일반학생전형의 경우, 합격 가능성은 여러 요소에 따라 달라질 수 있으며, 학교별로 전형요소 반영비율과 면접 등 다른 평가 요인이 포함될 수 있기 때문에 정확한 판단을 위해서는 동의대학교의 최종 합격 기준이나 전형요소 반영 비율 등을 확인해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 입학처 웹사이트나 채널을 통해 공식적인 합격 기준과 전형 요소에 대한 정보를 확인하시거나, 대학 관계자와 직접 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 를 참조해보시는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 성적 요건에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 평균 성적(영어 3.82, 수능 4개 영역 4.74)에 대한 언급이 없고, 현재 정시 등급이 3.33이라는 정보에 대한 직접적인 해석이 부족하다. 따라서 사실성 점수는 3으로 평가된다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 성적 기준에 대한 명확한 언급이 없고, 원본 텍스트의 내용을 완전히 반영하지 않는다. 따라서 일관성 점수는 3으로 평가된다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부에 지원하기 위한 성적 요건을 확인하라는 내용으로, 원본 텍스트의 주제와 관련이 있다. 그러나 원본 텍스트의 구체적인 성적 정보에 대한 언급이 부족하여 점수는 4로 평가된다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 다만, 약간의 어색한 표현이 있을 수 있으므로 점수는 4로 평가된다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽다. 그러나 원본 텍스트와의 연결이 약간 부족하여 점수는 4로 평가된다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 성적 기준을 명확히 반영하지 않으며, 성적 요건에 대한 정보가 부족하다. 따라서 정확성 점수는 3으로 평가된다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있어 점수는 3으로 평가된다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으나, 원본 텍스트의 구체적인 내용과는 다소 차이가 있다. 따라서 의미 적합성 점수는 4로 평가된다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있다. 그러나 일부 정보가 부족하여 완전한 이해를 방해할 수 있으므로 점수는 4로 평가된다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>0.6880097421245323</v>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>2024학년도에 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)에 지원하려면 성적 요건을 확인해야 합니다. 현재 제공된 정보로는 정시 모집에서의 성적 기준이 명확히 주어지지 않았습니다.
+만약 2024학년도에 바이오응용공학부를 지원하고자 한다면, 최신 입학규정이나 학교 홈페이지(https://ipsi. deu.ac.kr/main.do)에서 정시 모집의 성적 기준을 확인해 보시기 바랍니다.
+입학 관련 자세한 내용은 학교 입학처에 문의하시거나 공식 웹사이트를 참조하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 포함하고 있으며, 4.4의 등급으로 지원 가능성에 대한 언급도 적절합니다. 그러나 방사선학과의 평균 등급보다 낮은 성적이라는 점을 명확히 강조하지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 방사선학과의 지원 가능성에 대한 논의가 일관되게 진행됩니다. 다만, 과학 교과 성적의 중요성을 강조하는 부분이 원본 텍스트의 내용과는 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 과학 교과 성적과 전형 요소에 대한 설명은 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 정확하게 반영하고 있습니다. 그러나 4.4의 등급이 평균 등급보다 낮다는 점을 명확히 하지 않아 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 과학 교과 성적의 중요성을 강조하는 부분이 원본 텍스트와는 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>0.596517838908533</v>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>4.4의 등급으로 방사선학과에 지원하는 것은 가능성이 있지만 확률은 낮을 수 있습니다. 방사선학과는 과학 분야를 강조하기 때문에 과학 교과 성적이 중요합니다.
+방사선학과에 지원하려면 다음과 같은 점들을 고려해야 합니다:
+1. **과학 교과 성적**: 방사선학과에서는 과학 교과의 성적이 중요합니다. 특히 물리와 생물, 화학 등이 중요할 수 있습니다.
+2. **전형 요소 반영 비율**: 일반학생전형에서 학생부교과성적은 중요한 요소입니다. 4.4의 등급으로는 충분한 성적이 있어야 합니다.
+만약 과학 교과 성적이 좋지 않다면, 다른 전형을 고려해 보시는 것이 좋습니다. 예를 들어:
+- **학생부종합**: 인성과 학업역량이 중요합니다.
+- **실기/실적**: 실기와 실적을 중점적으로 평가하는 전형입니다.
+또한, 정시 모집에서는 경쟁률이 높으므로, 지원 가능성을 확인하기 위해 해당 대학의 홈페이지를 참조하거나 학교 관계자에게 문의해 보는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 정보를 얻을 수 있습니다.
+이런 점들을 고려하여 결정하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 영어 등급 평균이 2.8이라는 사실을 정확히 반영하고 있으며, 2.66이라는 점수가 평균보다 낮다는 점도 언급하고 있습니다. 그러나 "표준 변환 점수 합: 평균 338.76, 표준 편차 5.40"와 같은 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가된 정보(표준 변환 점수 등)가 원본 텍스트와 일관되지 않아서 일관성 점수가 낮습니다. 원본 텍스트의 내용과는 다소 다른 방향으로 해석하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 방사선학과에 지원하는 점수에 대한 평가를 다루고 있으며, 원본 텍스트의 주제와 매우 관련이 깊습니다. 따라서 관련성 점수는 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 점수와 관련된 정보를 정확히 반영하고 있지만, 추가된 정보가 원본 텍스트에 포함되어 있지 않아 정확성 점수가 다소 낮습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 전반적으로 적절한 의미를 전달하고 있습니다. 다만, 추가된 정보가 원본 텍스트의 맥락과 완전히 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있어 점수가 다소 낮습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>0.6638675478165706</v>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>2.66이라는 점수를 방사선학과에서 정시로 지원하는 경우에 대해 평가해보겠습니다.
+방사선학과의 지원 자격을 보면, 2024년도에는 다음과 같은 기준이 있습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 338.76, 표준 편차 5.40
+- 영어 등급: 평균 2.8, 표준 편차 0.74
+주어진 점수인 2.66은 이 기준에 비해 약간 낮습니다. 평균보다 약간 낮지만, 표준 편차를 고려하면 여전히 가능성이 있습니다. 그러나 경쟁률이 높고 지원자가 많기 때문에, 이 점수로는 충분한 경쟁력을 갖추지 못할 수 있습니다.
+따라서 2.66이라는 점수로 방사선학과에 정시로 지원하는 것은 위험성이 있을 수 있습니다. 더 높은 점수를 얻거나, 다른 전형을 고려해보는 것이 좋을 것 같습니다.
+더 자세한 정보나 추가적인 조언이 필요하시다면, https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 포함하고 있지만, 원본 텍스트에서 제공된 정보와는 다소 차이가 있습니다. 특히, 평균 성적이 4.12라는 점과 귀하의 성적이 평균보다 높은 것이라는 원본의 주장을 잘못 해석하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보와 일치하지만, 경찰행정학과의 농어촌 전형에 대한 구체적인 수치와 비교를 통해 다소 일관성이 떨어집니다. 원본 텍스트의 긍정적인 요소를 강조하는 부분이 누락되어 있어 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변으로서 관련성이 높지만, 원본 텍스트의 주요 포인트인 평균 성적과 경쟁률에 대한 정보가 충분히 반영되지 않았습니다. 따라서 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와 다르게 해석되어 일관성이 떨어질 수 있습니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 성적과 관련된 정보가 잘못 해석되어 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 다소 부족함이 있어 종합적인 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 잘못 해석되어 의미 전달에 약간의 혼란을 줄 수 있습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보가 혼란을 줄 수 있어 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>0.5984133604071219</v>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>3.66이라는 성적을 가지고 경찰행정학과의 농어촌 전형에 지원하셨다면, 합격 가능성은 어느 정도일까요?
+먼저, 경찰행정학과의 농어촌 전형에서 평균 영어 등급이 4.00이고 표준 편차가 0.53이라는 것을 확인할 수 있습니다. 이는 지원자의 성적 3.66이 평균보다 약간 낮은 점수라는 것을 의미합니다.
+다음으로, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 315.78이고 표준 편차는 6.84입니다. 지원자의 성적 3.66은 이 평균보다 약간 낮습니다.
+따라서, 지원자의 성적이 경찰행정학과 농어촌 전형의 평균 점수와 비교했을 때, 약간 낮은 편입니다. 하지만 표준 편차가 6.84이므로, 이 정도 차이는 합격 가능성에 큰 영향을 미치지 않을 수 있습니다.
+결론적으로, 지원자의 성적이 경찰행정학과 농어촌 전형의 평균 점수보다 약간 낮은 편이지만, 표준 편차를 고려하면 합격 가능성은 아직 남아 있다고 볼 수 있습니다. 하지만 확실한 것은 아니므로, 최종 합격 여부는 입학심사위원회의 심사를 통해 결정될 것입니다.
+추가적으로, 지원자의 경력이나 기타 서류 평가 영역에서 우수한 성과를 보여주면 합격 가능성은 더욱 높아질 수 있습니다. 따라서, 지원서 작성 시에는 지원자의 특성과 경험을 잘 반영하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 25번의 합격 확률이 낮다고 언급하고 있지만, 원문에서는 특정 학과에 따라 합격 확률이 달라질 수 있다고 명시하고 있습니다. 따라서, 원문에서 제공하는 정보와는 다소 상충하는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 예비 25번의 합격 확률이 낮다고 주장하지만, 원문에서는 특정 학과에 따라 합격 가능성이 있다고 언급하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비 25번의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원문에서 제시한 특정 학과에 대한 언급이 부족하여 약간의 관련성 결여가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 연결성이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 예비 25번의 합격 확률에 대한 정보가 원문과 다소 상충하며, 원문에서 제공하는 특정 학과에 대한 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 특히 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서의 역할을 잘 수행하고 있습니다. 그러나 원문과의 맥락에서 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 다만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>0.5026050114434897</v>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>25번의 예비 합격자 순위에서 붙을 확률은 상당히 낮습니다. 정시 일반학생 전형의 경쟁률과 충원 합격자 수를 고려하면, 예비 25번이란 것은 이미 많은 지원자가 있어 경쟁이 치열한 상태입니다.
+예비 합격자 순위가 높을수록 붙는 확률은 낮아집니다. 예비 1순위부터 충원 합격자 수까지 모두 합격하면, 그 다음의 예비 합격자는 불합격이 됩니다.
+하지만 모든 것이 확실하지 않다는 점을 기억해야 합니다. 입학사정관들이 서류를 평가하고 면접을 실시하여 개인적인 능력과 적합성을 판단하기 때문에, 최종 합격 여부는 서류평가와 면접 성적에 따라 결정됩니다.
+따라서, 현재의 예비 25번 순위에서 붙을 확률은 매우 낮지만, 모든 가능성은 열어두고 준비하는 것이 좋습니다. 특히 면접 준비를 철저히 하여 최선을 다해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보가 잘못된 것으로 보입니다. 원본 텍스트에서는 법경찰행정학부가 존재하지 않는다고 명시하고 있지만, 생성된 응답에서는 법학과에 대한 정보가 제공되고 있습니다. 이는 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 경찰행정학과에 대한 평균 성적을 다루고 있지만, 생성된 응답은 법학과에 대한 정보를 제공하고 있어 서로 다른 주제를 다루고 있습니다.
+3. Relevance Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 주제와 관련성이 낮습니다. 원본 텍스트는 경찰행정학과의 성적에 대한 정보를 제공하는 반면, 생성된 응답은 법학과에 대한 정보를 다루고 있어 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 주제와 관련된 내용이 아니기 때문에 흐름이 자연스럽지 않을 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다. 법학과에 대한 정보가 주제와 맞지 않기 때문에 논리적인 흐름이 약해집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 법경찰행정학부가 존재하지 않는다는 사실을 무시하고 법학과에 대한 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제와 관련이 없는 정보를 제공합니다. 이는 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 주제와 관련이 없기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>0.6635807642830333</v>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인문사회과학대학 법학과의 정원 내 모집 인원은 40명입니다. 현재까지의 정보를 바탕으로, 평균 성적을 예측하기는 어렵지만, 안정권에 들어가기 위해서는 대략적으로 중위값 이상의 점수를 받는 것이 필요할 것으로 보입니다.
+법학과의 경우, 국어, 수학, 영어 등 주요 과목에서 높은 성적을 받는 것이 중요합니다. 특히, 사회 과목(역사/도덕 포함)에서도 좋은 성적이 요구됩니다. 또한, 한국사와 사회 과목의 등급 평균이 상위권에 위치하는 학생들이 선호될 것으로 예상됩니다.
+현재까지의 정보를 바탕으로 추정해보면, 국어 90점 이상, 수학 85점 이상, 영어 75점 이상을 받는다면 안정권에 들어갈 가능성이 높아 보입니다. 하지만 이는 단순 예측일 뿐 실제 모집 결과와는 다를 수 있으므로, 최종적인 성적은 입시 결과 발표를 통해 확인해야 합니다.
+추가로, 동의대학교 법학과는 학생부교과전형을 통해 농어촌학생 전형을 운영하고 있습니다. 만약 농어촌 지역에 거주한 경험이 있다면, 해당 전형을 통해 추가적인 기회를 얻을 수 있을 것입니다.
+자세한 정보는 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)에서 확인하시거나, 직접 입학처로 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 보육가정상담학과의 모집 인원, 지원 인원, 경쟁률, 수능 4개 영역 등급 평균 등의 정보를 제공하고 있지만, 이는 원본 텍스트와 관련이 없는 정보입니다. 원본 텍스트는 아동학과에 대한 정보와 정시 등급에 대한 합격 가능성을 다루고 있습니다. 따라서, 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 정보(보육가정상담학과의 경쟁률 등)를 포함하고 있습니다. 원본 텍스트는 아동학과에 대한 정보에 집중하고 있으며, 생성된 응답은 다른 학과에 대한 정보를 제공하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 아동학과의 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 보육가정상담학과에 대한 정보로 주제를 변경하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 주제와 관련이 없기 때문에 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 아동학과에 대한 정보가 아닌 보육가정상담학과에 대한 정보를 제공하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성, 정확성 모두 원본 텍스트와의 관계에서 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽지만, 주제와 관련이 없기 때문에 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>0.6215958789977442</v>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 모집 정보를 확인해보겠습니다.
+- **모집 인원**: 5명
+- **지원 인원**: 36명
+- **경쟁률**: 7.20
+- **수능 4개 영역 등급 평균**: 3.12
+보육가정상담학과의 경쟁률이 7.20으로 매우 높습니다. 이와 비교해보면, 정시 산출 등급이 5.33인 경우는 상대적으로 높은 점수입니다.
+- **수능 4개 영역 평균**: 3.12
+- **정시 산출 등급**: 5.33
+정시 산출 등급이 5.33이라면, 이는 수능 4개 영역 평균보다 높은 점수입니다. 따라서, 이 점수로 보육가정상담학과에 합격할 가능성이 매우 높습니다.
+하지만, 최종 합격 여부는 여러 요인에 따라 결정되므로, 정확한 결과를 확인하기 위해서는 동의대학교 입학처 웹사이트나 관련 공지사항을 참고하시거나 직접 문의하시는 것이 좋겠습니다. 
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 에 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 충원 합격자 발표 및 등록 일정에 대한 정보를 포함하고 있지만, 나군 학생부교과 전형의 동점자 처리기준에 대한 언급은 원본 텍스트와 관련이 없습니다. 원본 텍스트는 예비 번호와 충원 합격 가능성에 대한 정보에 집중하고 있으며, 동점자 처리기준은 불필요한 정보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 동점자 처리기준에 대한 언급은 원본 텍스트와 일치하지 않으며, 이로 인해 일관성이 떨어집니다. 원본 텍스트는 예비 번호와 관련된 정보에 집중하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 충원 합격자 발표와 관련된 정보를 제공하지만, 나군 학생부교과 전형의 동점자 처리기준에 대한 정보는 질문과 직접적인 관련이 없습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 동점자 처리기준에 대한 언급이 원본 텍스트와의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 동점자 처리기준에 대한 언급은 원본 텍스트의 맥락과 맞지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 원본 텍스트와의 관련성 및 일관성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 동점자 처리기준에 대한 언급은 맥락에 맞지 않으므로 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 동점자 처리기준에 대한 설명이 추가되어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>0.6776740623013775</v>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 나군 학생부교과 전형에 대한 정보를 바탕으로 답변 드리겠습니다.
+현재 제공된 정보로는 충원 합격자 발표 및 등록일정이 있습니다. 하지만, 충원 합격자 3차 이후의 합격 가능성에 대해 정확히 예측하기 위해서는 해당 전형의 동점자 처리기준을 고려해야 합니다.
+나군 학생부교과(농어촌학생전형)의 동점자 처리기준은 다음과 같습니다:
+1. 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자
+2. 영어교과 전 과목 등급 평균 상위자
+3. 국어교과 전 과목 등급 평균 상위자
+이 기준을 참고하여, 예비 12번의 성적과 동점자 처리기준을 비교해보면 합격 가능성 여부를 판단할 수 있습니다.
+만약에 예비 12번의 성적이 동점자 처리기준보다 높다면 합격 가능성이 있을 것입니다. 하지만, 정확한 판단은 해당 전형의 동점자 처리기준과 예비 12번의 성적을 비교하여 결정해야 합니다.
+따라서, 더 자세한 정보를 얻으시려면 https://ipsi. deu. ac. kr/main. do 또는 입학안내 홈페이지에서 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75의 성적이 높은 점수라고 언급하고 있으며, 유아교육학과의 평균 수능 등급이 4.18이라는 사실을 반영하고 있습니다. 그러나, 유아교육학과에 지원하기 어려울 것이라는 원본 텍스트의 결론과는 상충되는 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 유아교육학과에 지원할 수 있다고 주장하지만, 원본 텍스트에서는 4.75의 성적으로는 지원하기 어려울 것이라고 명시하고 있습니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련이 있으며, 유아교육학과에 대한 정보와 경쟁력에 대한 논의를 포함하고 있습니다. 그러나 원본 텍스트의 결론과는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 결론 차이로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 유아교육학과의 평균 수능 등급과 경쟁률에 대한 정보를 제공하지만, 4.75의 성적이 유아교육학과에 지원할 수 있다는 주장은 원본 텍스트의 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 유아교육학과에 대한 정보가 적절하게 표현되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 원본 텍스트와의 차이로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>0.6949396734761421</v>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 등급은 상당히 높은 점수입니다. 일반적으로 4.0 이상의 수능 등급을 가진 학생들은 경쟁력이 있는 편입니다.
+유아교육학과의 경우, 평균 수능 등급이 4.18이고 표준 편차가 0.25로 비교적 낮은 수준입니다. 따라서 4.75라는 높은 수능 등급을 가진 학생이라면 유아교육학과에 충분히 경쟁력을 갖추실 수 있을 것입니다.
+하지만, 유아교육학과의 지원 인원이 13명이고 모집인원이 4명이라는 점을 고려하면, 이는 매우 높은 경쟁률을 의미합니다. 따라서 4.75라는 높은 수능 등급을 가진 학생이라도 유아교육학과에 지원할 때는 다른 평가 요소들(예: 면접 성적, 서류평가 등)이 중요하게 작용할 수 있습니다.
+결론적으로 4.75라는 높은 수능 등급을 가진 학생이라면 유아교육학과에 충분히 경쟁력을 갖추실 수 있을 것입니다만, 매우 높은 경쟁률을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과의 평균 등급과 관련된 정보를 포함하고 있지만, 영어 등급 평균이 4.00이라고 언급한 부분은 원본 텍스트의 영어 등급 평균 6.33과 상충합니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 영어 등급 평균에 대한 정보가 다르기 때문에 일관성이 떨어집니다. 경쟁률과 모집 인원에 대한 정보는 일관되지만, 전체적으로는 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 보육가정상담학과의 지원 자격 및 평균 환산등급에 대한 정보를 제공하고 있어 원본 텍스트와 관련이 있습니다. 그러나 원본 텍스트의 핵심 내용인 합격 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 일부 정보가 중복되거나 불필요하게 길어져서 완전한 일관성을 방해할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 영어 등급 평균에 대한 잘못된 정보가 포함되어 있어 정확성이 떨어집니다. 또한, 충원 합격 가능성에 대한 설명이 다소 모호합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 정확성에서의 문제로 인해 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보의 부정확성으로 인해 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어져서 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>0.5602124501687029</v>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과 일반학생전형에 대한 지원 자격 및 평균 환산등급을 확인해보겠습니다.
+- **보육가정상담학과 일반학생전형**:
+  - 모집 인원: 15명
+  - 지원 인원: 248명
+  - 경쟁률: 약 16.53 : 1 (248 / 15)
+  - 충원 합격 (후보순위): 15명
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 307.68
+  - 영어 등급 평균: 4.00
+- **당신의 환산등급**: 4.16
+보육가정상담학과 일반학생전형의 충원 합격 점수 평균은 307.68입니다. 당신의 환산등급이 4.16이라면, 이는 평균보다 약간 높습니다.
+- **경쟁률**: 현재 경쟁률이 매우 높아서, 평균 점수를 넘어서도 충원 합격을 보장할 수 없습니다. 하지만 당신의 환산등급이 평균보다 높으므로, 충원 합격 가능성은 있습니다.
+- **추합**: 추합 절차에서는 지원자의 전반적인 성적과 경쟁력을 종합적으로 판단하므로, 단순히 등급만으로는 결정되지 않습니다. 다른 요소들(면접 결과, 서류 평가 등)도 고려됩니다.
+따라서, 당신의 환산등급이 4.16이라면 충원 합격 가능성은 있지만, 확실한 것은 아닙니다. 추합 절차에서 전반적인 성적과 경쟁력을 종합적으로 평가받으므로, 최선을 다해 준비하시길 바랍니다.
+더 자세한 정보는 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do)를 참조하시거나 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 정확하게 반영하고 있습니다. 그러나 소프트웨어공학부의 평균 수능 등급에 대한 정보는 출처에서 제공되지 않았으므로, 이 부분은 다소 불확실합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과와 소프트웨어공학부에 대한 정보를 제공하지만, 두 학과의 관계에 대한 설명이 다소 모호하여 일관성이 떨어질 수 있습니다. 특히, 소프트웨어융합학과가 정시로 지원할 수 없다는 점과 소프트웨어공학부의 신설에 대한 정보가 명확히 연결되지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 잘 다루고 있으며, 소프트웨어융합학과의 정시 지원 여부와 관련된 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 소프트웨어융합학과와 소프트웨어공학부의 관계에 대한 설명이 더 명확했으면 좋았을 것입니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 소프트웨어융합학과의 정시 지원 불가에 대한 정확한 정보를 제공하지만, 소프트웨어공학부의 평균 수능 등급에 대한 정보는 출처에서 확인할 수 없으므로 정확성에 약간의 의문이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행하고 있습니다. 그러나 일부 정보의 출처가 불확실하여 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 소프트웨어융합학과와 소프트웨어공학부에 대한 정보를 적절히 연결하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있어 점수가 다소 낮아졌습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>0.4735540268823553</v>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부가 신설되었으므로, '소프트웨어융합학과'라는 명칭으로 정시로 지원할 수 있는 학과는 없습니다. 대신 '소프트웨어공학부'에서 관련 분야를 공부하실 수 있습니다.
+2024학년도에 소프트웨어공학부의 평균 수능 4개 영역 등급은 5.27이며, 표준 편차는 0.30입니다. 따라서 평균적으로 5.27 이상의 수능 점수를 받아야 하는 것으로 추정할 수 있습니다.
+하지만 정확한 지원 기준은 해당 대학에서 발표하는 최신 정보에 따라 변동될 수 있으므로, 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 통해 가장 최신의 지원 자격 및 평균 등급을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 포함하고 있으며, 면접 준비와 서류 준비에 대한 구체적인 내용을 제시하고 있습니다. 그러나 원본 텍스트에서 언급된 '학생부 교과성적'에 대한 언급이 부족하여 완전한 사실성을 반영하지는 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 면접과 서류 준비에 대한 추가적인 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 핵심 요소인 '학생부 교과성적'이 누락되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 면접과 서류 준비에 대한 구체적인 정보를 제공하고 있습니다. 질문에 대한 적절한 답변을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 내용이 원본 텍스트와의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확한 정보를 제공하고 있으나, 원본 텍스트의 모든 세부 사항을 포함하지 않아 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 사실성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 일부 세부 사항이 누락되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>0.6385046172684566</v>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 경우, 면접 점수와 제출서류를 모두 고려합니다. 특히, 면접에서는 지원동기, 학업계획, 학업역량, 전공적합성 등에 대한 질문이 주로 이루어집니다.
+따라서, 면접 준비 시 다음과 같은 내용을 충분히 준비하는 것이 좋습니다:
+1. 지원 동기에 대해 구체적으로 설명
+2. 입학 후의 학업 계획을 세부적으로 제시
+3. 고교 생활 중 학업에 대한 어려움과 이를 해결하기 위한 노력을 설명
+4. 본인이 의미를 두고 노력했던 소프트웨어 관련 교내 활동을 소개
+또한, 서류 준비는 다음과 같은 내용이 필요합니다:
+1. 고교 졸업(예정)자: 학생부 온라인 제공 동의가 되면 제출하지 않아도 됩니다.
+2. 검정고시 출신자: 검정고시 합격증서 사본, 검정고시 성적증명서 1부
+3. 외국고교 졸업(예정)자: 공증받은 외국고교 졸업(예정)증명서 1부, 공증받은 외국고교 성적증명서 1부
+이러한 서류와 면접 준비를 통해 최선의 결과를 얻을 수 있습니다. 더 궁금하신 사항이 있으시면 https://ipsi. deu. ac. kr/main. do로 접속하여 자세히 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 최초합격자 예측에 대한 불확실성을 언급하고 있지만, 원본 텍스트에서 제공된 4.12의 평균 성적에 대한 정보는 누락되었습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 인문사회과학대학의 성적 통계에 대한 언급은 원본 텍스트와 일치하지 않습니다. 이로 인해 일관성이 떨어지므로 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 적절한 정보를 제공하고 있으며, 동의대학교 소프트웨어공학부의 최초합격자 예측에 대한 관련 정보를 다루고 있습니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 문장에서 흐름이 약간 끊기는 느낌이 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 평균 성적 정보를 포함하지 않아 정확성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 정확성에서 일부 부족함이 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 누락되어 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용이지만, 일부 문장이 다소 복잡하게 느껴질 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>0.7185586223585286</v>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 소프트웨어공학부의 최초합격자를 확정적으로 예측하기 어렵습니다. 동의대학교 소프트웨어공학부에 대한 정시 성적 기준을 확인해야 합니다.
+현재 주어진 데이터는 인문사회과학대학의 모집단위별 성적 통계입니다. 이 정보만으로는 특정 단과대학(예: 소프트웨어공학부)의 최초합격자 기준을 알 수 없습니다.
+따라서, 정확한 답변을 위해서는 다음과 같은 정보를 확인해야 합니다:
+1. 동의대학교 소프트웨어공학부의 정시 합격 기준 점수
+2. 해당 학과에서 지원하는 모집단위의 경쟁률
+이런 정보들을 통해 더 정확한 예측을 할 수 있습니다.
+만약 필요한 정보를 찾지 못하면, 동의대학교의 공식 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나 학교 관계자에게 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않고 있으며, 소프트웨어공학부에 대한 정보로 잘못된 내용을 포함하고 있습니다. 또한, 표준 변환 점수와 관련된 정보는 원본 텍스트에 포함되어 있지 않으므로 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 소프트웨어융합학과에 대한 정보만을 제공하고 있으며, 소프트웨어공학부에 대한 언급은 없습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 질문에 대해 소프트웨어공학부의 정보를 제공하고 있어 관련성이 떨어집니다. 그러나, 지원 가능성에 대한 일반적인 조언은 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되지 않는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 특히 소프트웨어융합학과와 관련된 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 불일치로 인해 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 다만, 원본 텍스트와의 불일치로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>0.5924087252942613</v>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부의 경우, 평균 5등급을 받은 학생들의 표준 변환 점수 합은 약 434.70입니다 (표준 편차는 8.01). 이는 대략적으로 평균 5등급으로 지원할 수 있는 수준이라고 볼 수 있습니다.
+하지만, 정확한 확률을 알기 위해서는 해당 학과의 경쟁률과 모집인원 등을 고려해야 합니다. 예를 들어, 경쟁률이 높다면 5등급으로 충분히 지원할 수 있는 것은 아니겠죠. 따라서, 특정 학과에 대한 최종 확률을 정확하게 알기 위해서는 해당 학과의 모집인원, 지원 인원, 그리고 평균 점수 등을 종합적으로 고려해야 합니다.
+더 자세한 정보를 얻으시려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 평균 점수와 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 점수와 비교할 때, "정시 성적이 4.28이라면, 평균 점수보다는 약간 낮은 편입니다."라는 주장은 사실과 다릅니다. 원본 텍스트에 따르면 4.28은 평균 점수보다 높습니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 점수에 대한 해석에서 불일치가 발생합니다. 원본 텍스트는 4.28이 평균보다 높다고 명시하고 있지만, 생성된 응답은 이를 반대로 해석하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 합격 가능성을 평가하는 데 필요한 정보를 제공하고 있으며, 관련된 요소들을 고려하고 있습니다. 그러나 원본 텍스트의 핵심 정보를 완전히 반영하지는 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 평균 점수에 대한 잘못된 해석이 전체적인 일관성에 영향을 미칠 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 점수에 대한 잘못된 해석이 있어 정확성에 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 평균 점수에 대한 해석에서 오류가 있어 의미 전달에 약간의 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>0.6487818755591611</v>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 신소재공학과에 대한 정확한 합격 가능성을 판단하기 어렵습니다. 동의대학교 신소재공학과의 경우, 지원 인원이 많고 경쟁률이 높아서 입학사정관제가 적용되는 전형에서 평균 점수가 상당히 높은 편입니다.
+특히, 2024학년도 동의대학교 신소재공학과의 경우:
+- 모집 인원: 5명
+- 지원 인원: 36명
+- 경쟁률: 7.20
+이와 같은 상황에서 정시 성적이 4.28이라면, 평균 점수보다는 약간 낮은 편입니다. 그러나 입학사정관제에서는 학생의 전반적인 역량을 종합적으로 판단하기 때문에 단순히 점수만으로 결정되는 것은 아닙니다.
+따라서, 다음과 같은 요소들을 고려해볼 필요가 있습니다:
+1. **학생부 성적**: 정시 성적이 4.28이라면, 학생부에서의 성적이 높은 편인지 확인해야 합니다.
+2. **활동 및 자격증**: 다양한 활동이나 취득한 자격증이 있다면 이는 긍정적으로 평가될 수 있습니다.
+3. **서류 제출**: 지원자격 서류와 학생부종합 서류 등이 잘 준비되어 있는지 확인해야 합니다.
+만약 더 많은 정보를 원하신다면, 제공된 데이터와 함께 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해보시는 것이 좋을 것 같습니다. 이 링크에서 동의대학교의 정확한 전형요소 및 평가 기준 등을 확인하실 수 있습니다.
+이 정보를 바탕으로, 합격 가능성에 대한 판단을 내리실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요 없다는 사실을 정확하게 반영하고 있습니다. 그러나 추가적인 자료가 필요할 경우에 대한 언급은 다소 혼란을 줄 수 있습니다. 자기소개서가 요구되는 경우에 대한 언급은 원문과 일치하지 않으므로 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 자기소개서가 요구되는 경우에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원문에서는 자기소개서가 필요 없다고 명확히 언급하고 있으므로, 이 부분에서 일관성이 부족하다고 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련된 추가 정보를 포함하고 있습니다. 따라서 매우 관련성이 높다고 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 자기소개서에 대한 언급이 원문과 다르게 추가되어 있어 약간의 일관성 문제로 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 일반학생전형에 대한 정확한 정보를 제공하고 있지만, 자기소개서가 필요 없는 경우에 대한 명확한 진술이 부족하여 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일관성과 정확성에서 약간의 문제가 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있지만, 자기소개서에 대한 추가 언급이 원문과 다르게 해석될 수 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 내용이 혼란을 줄 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>0.5839842181056207</v>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 일반학생전형에서는 주로 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사 등의 교과 성적을 기준으로 합격자를 선정합니다. 따라서 자기소개서는 필수적으로 작성하지 않아도 됩니다.
+만약 추가적인 자료가 필요하다면 대학 홈페이지의 모집요강이나 전형 안내를 확인해보시거나, 직접 대학에 문의하시는 것이 좋습니다. 특히 자기소개서가 요구되는 경우에는 반드시 준비해야 합니다.
+더 궁금하신 점이 있다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 대학에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 잘 반영하고 있으며, 4.5 등급에 대한 합격 가능성을 여러 요인에 따라 설명하고 있습니다. 그러나, "동의대학교 전체의 수능 4개 영역 등급 평균은 5.73"이라는 정보는 제공된 원문에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 내용과 일부 일치하지만, 특정 학과의 평균 등급에 대한 정보가 다르게 제시되어 있습니다. 예를 들어, 원문에서는 인문사회과학대학의 국어국문학과의 평균 등급이 4.65라고 명시되어 있지만, 생성된 응답에서는 전체 평균 등급을 언급하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 매우 관련성이 높습니다. 수능 정시 모집과 추가 모집에 대한 질문에 대해 적절한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 추가 모집에 영향을 미치는지를 명확하게 설명하고 있습니다. 그러나, 일부 정보가 원문과 다르게 제시되어 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대체로 정확하지만, 원문에 없는 정보(전체 평균 등급 5.73)가 포함되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지며, 주제에 적합한 정보를 제공합니다. 그러나 일부 정보가 원문과 다르게 제시되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>0.8196304982080377</v>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>동의대학교에서 수능 정시 모집으로 4.5 등급을 받으셨다면, 추가모집에 지원 가능할지 여부는 여러 요인에 따라 달라질 수 있습니다.
+1. **모집단위별 경쟁률**: 각 단과대학 및 모집단위의 경쟁률이 중요합니다. 예를 들어, 공과대학의 환경공학과와 의생명공학과는 매우 높은 경쟁률을 보입니다. 반면, 인간공학과나 제품디자인공학과는 경쟁률이 낮을 수 있습니다.
+2. **모집단위별 지원 인원**: 각 모집단위의 지원 인원도 중요한 요소입니다. 예를 들어, 공과대학의 환경공학과와 의생명공학과는 많은 지원자가 참여하므로 경쟁률이 높을 수 있습니다.
+3. **수능 4개 영역 등급 평균**: 동의대학교 전체의 수능 4개 영역 등급 평균은 5.73입니다. 따라서, 4.5는 평균보다 낮은 점수이므로 추가모집에 지원할 때 경쟁률을 고려해야 합니다.
+4. **추가모집의 특성**: 일부 대학에서는 추가모집에서 특정 기준을 두고 지원자를 선발합니다. 이 경우, 4.5 등급만으로는 충분한 점수가 아니더라도 다른 요인(예: 학생부 종합평가)이 고려될 수 있습니다.
+따라서, 4.5 등급으로 추가모집에 지원할 수 있을지는 모집단위별 경쟁률과 지원 인원, 그리고 해당 단과대학의 정책 등을 고려해야 합니다. 자세한 정보는 동의대학교의 공식 웹사이트를 참조하거나 입학처와 직접 문의하는 것이 좋습니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 를 방문해 보세요.</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학부의 정시 등급 기준에 대한 직접적인 정보를 제공하지 않으며, 원본 텍스트에서 제시된 평균 등급(영어 5.06, 수능 5.78)을 언급하지 않고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 원본에서 제공된 평균 등급에 대한 언급이 없습니다. 이는 일관성 점수를 낮추는 요소입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학부의 정시 등급 기준을 알고 싶다는 질문에 대한 답변을 제공하고 있으며, 관련된 정보와 조언을 포함하고 있습니다. 그러나 원본 텍스트의 구체적인 정보를 반영하지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 신소재공학부의 평균 등급에 대한 정보를 누락하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 요소를 가지고 있지만, 사실성과 일관성에서 큰 결함이 있어 전반적인 품질 점수는 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 적절한 답변을 제공하려고 하지만, 원본 텍스트의 의미를 충분히 반영하지 못하고 있습니다. 따라서 의미 적합성 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 조언을 제공합니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>0.6229532898902842</v>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 신소재공학부에 대한 정시 등급 기준이 직접적으로 나와 있지 않습니다. 정시 모집군과 관련된 정보들은 주어진 데이터에서 확인되지 않았습니다.
+만약 동의대학교 신소재공학부의 정시 등급 기준을 알고 싶다면, 다음과 같은 방법으로 확인하실 수 있습니다:
+1. 동의대학교의 공식 웹사이트를 방문하여 학과별 정시 모집군 정보를 확인합니다.
+2. 입학처나 학과 관계자에게 직접 문의하여 최신 정보를 얻습니다.
+또한, 일반적으로 신소재공학 분야에서는 과학 및 수학 능력이 중요하므로, 해당 영역에서 높은 점수를 받는 것이 유리할 것입니다. 정확한 등급 기준을 알고 싶으시다면 위의 방법들을 활용해 주세요.</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 작년 평균 점수가 378.15점이라고 명시되어 있는데, 생성된 응답에서는 447.35점으로 잘못 언급하고 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 447점이 작년 평균 점수보다 훨씬 높다고 언급하고 있지만, 생성된 응답은 작년의 점수가 447점보다 높았다고 주장하여 모순을 일으킵니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용과는 다소 벗어나 있습니다. 그러나 여전히 신소재공학과의 경쟁률과 관련된 정보를 다루고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해져서 일관성이 떨어집니다. 특히, 작년과 올해의 점수 변동에 대한 설명이 명확하지 않아 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 사실과 다르게 작년 평균 점수를 잘못 언급하고 있으며, 이로 인해 정확성이 낮습니다. 원본 텍스트의 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성이 부족하고, 정확성 또한 떨어지기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 잘못된 정보로 인해 전체적인 의미 전달이 왜곡되었습니다. 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 일부 문장이 복잡하게 구성되어 있어 명확한 이해를 방해할 수 있습니다. 정보의 흐름이 매끄럽지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>0.807432586843464</v>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 신소재공학과의 최종 평균 점수는 447.35점으로, 작년에 비해 약간 높아졌습니다. 하지만 작년의 표준점수가 447점보다 약간 높았다는 말씀은 작년에도 신소재공학과가 상대적으로 높은 경쟁률을 보였음을 의미합니다.
+현재 제공된 정보만으로는 작년과 올해의 점수 변동이 정확히 어떻게 이루어졌는지 알 수 없습니다. 하지만 동일한 표준점수가 주어진 경우, 작년보다 약간 높은 경쟁률을 보였다는 것은 작년에 비해 더 많은 지원자가 신소재공학과를 지원했음을 의미합니다.
+따라서 작년의 최종 평균 점수와 올해의 표준점수가 유사한 경우, 작년보다 약간 높은 경쟁률을 보였다는 것은 작년에 비해 더 많은 지원자가 신소재공학과를 지원했음을 의미합니다. 이는 작년에 비해 더 낮은 확률로 합격할 수 있다는 것을 의미할 수 있습니다.
+하지만, 최종적인 결정은 입시 결과 발표일까지의 모든 정보와 경쟁률을 고려해야 합니다. 따라서 정확한 가능성을 판단하기 위해서는 동의대학교 입학사정관이나 관련 웹사이트를 참조하는 것이 좋습니다. 더 자세한 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교 신소재공학부의 성적 산출 방법에 대한 추가 정보를 요구하고 있지만, 원본 텍스트에서 제공된 평균 성적 데이터와 비교하여 합격 가능성을 언급하는 부분이 다소 모호합니다. 따라서 일부 사실이 정확하지 않거나 불완전하게 전달되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일치하는 부분이 있지만, 성적 변환에 대한 정보가 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 평균 성적과 비교하는 방식이 다소 다르게 표현되었습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보 요청이 포함되어 있어 약간의 주제 이탈이 발생했습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 느슨해질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 성적 변환에 대한 정보가 추가되어 있어 정확성이 떨어질 수 있습니다. 원본의 평균 성적 데이터와의 비교가 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답의 질이 좋지만, 사실성과 일관성에서 다소 부족함이 있어 종합적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가적인 정보 요청이 포함되어 있어 약간의 맥락 이탈이 발생했습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 그러나 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>0.5398672489505089</v>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>4.3 등급의 수능 영어 점수가 4.1~4.2 등급으로 변환되면, 해당 학교와 전형에 따라 합격 가능성이 있습니다. 하지만 정확한 판단을 위해서는 다음과 같은 정보가 필요합니다:
+1. **정시 성적 산출 방법**: 동의대학교의 정시 성적 산출 방법이 무엇인지 확인해야 합니다. 예를 들어, 특정 교과의 표준점수와 등급점수를 어떻게 합산하는지 등에 따라 결과가 달라질 수 있습니다.
+2. **정시 모집단위**: 신소재공학부 일반학생전형의 정시 모집단위가 무엇인지 확인해야 합니다. 예를 들어, 인문사회계열이나 공과계열 등에 속하는지에 따라 성적 산출 방법이 달라질 수 있습니다.
+3. **정시 전형성적 산출방법**: 신소재공학부 일반학생전형의 정시 전형성적 산출 방법을 확인해야 합니다. 예를 들어, 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 등의 방식으로 합산되는지 등을 파악해야 합니다.
+4. **기타 요인**: 면접 성적, 실기 성적(필요한 경우), 학생부 종합 평가 점수 등도 고려해야 합니다.
+위와 같은 정보를 바탕으로 정확한 판단을 내릴 수 있습니다. 만약 위의 정보를 모두 확인하지 못했다면, 동의대학교의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교의 공식 웹사이트에 접속하여 자세한 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 구체적인 성적 정보를 제공하지 않고, 대신 일반적인 수능 전형에 대한 설명을 하고 있습니다. 이는 원본 텍스트의 구체적인 사실과 일치하지 않으며, 중요한 정보가 누락되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 정보가 포함되어 있습니다. 예를 들어, 원본 텍스트는 구체적인 성적 데이터를 제공하는 반면, 생성된 응답은 그러한 정보를 부정확하게 언급하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 인공지능학과에 대한 정보를 제공하려고 하지만, 원본 텍스트의 구체적인 성적 정보와는 관련이 적습니다. 일반적인 수능 전형에 대한 설명은 있지만, 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용이지만, 원본 텍스트의 정보와는 일관성이 떨어져서 전체적인 일관성이 부족합니다. 정보의 흐름이 원본 텍스트와는 다르게 전개되고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 정확하게 반영하지 않으며, 잘못된 정보나 누락된 정보가 많습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 따라서 의미적 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 표현이 많습니다. 그러나 일부 내용은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>0.7084031021237936</v>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과는 현재 제공된 정보로는 해당 학과에 대한 모집단위와 정원, 지원자 수 등 구체적인 정보가 없습니다. 따라서 인공지능학과의 수능 일반학생전형으로 지원하려면 동의대학교의 공식 웹사이트를 참조하거나, 입학처에 문의하여 최신 정보를 얻는 것이 좋습니다.
+일반적으로 수능 전형에서는 국어, 수학, 영어, 탐구 등 여러 과목의 성적을 반영합니다. 동의대학교의 경우, 수능 반영 방식은 다음과 같습니다:
+- **국어(화법과작문 or 언어와매체)**
+- **수학(확률과통계 or 미적분 or 기하)**
+- **영어**
+- **탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목)**
+각 과목의 반영 비율은 대체로 25%씩입니다. 가산점도 일부 모집단위에서는 적용될 수 있습니다.
+예를 들어, 국어와 수학에서 각각 90% 이상, 영어에서 80% 이상, 탐구에서 두 과목 모두 70% 이상의 점수를 받는다면, 이 정도 성적을 가지고 지원하면 좋은 결과를 기대할 수 있을 것입니다. 하지만 이는 동의대학교 인공지능학과의 실제 합격기준이 아니며, 최종 합격기준은 동의대학교 입학처에서 확인해야 합니다.
+따라서, 가장 정확한 정보를 얻기 위해서는 동의대학교 공식 웹사이트나 입학처에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 5.27 성적에 대한 충원 합격 가능성을 평가하기 위해 수능 4개 영역의 평균과 표준 편차를 고려해야 한다고 언급하고 있습니다. 그러나, 원본 텍스트에서 제공된 구체적인 학과별 평균과 표준 편차를 명시하지 않고, "의료경영학과"의 예를 들어 설명하고 있습니다. 이로 인해 일부 정보가 누락되었지만, 전반적으로 사실에 기반한 내용입니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 특정 학과의 평균과 표준 편차를 언급하면서도 전체적인 학과 목록을 제공하지 않아 일관성이 떨어집니다. 원본 텍스트에서 제시된 여러 학과의 정보를 종합적으로 다루지 않고, 특정 학과에만 집중하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 5.27 성적의 충원 합격 가능성에 대한 질문에 직접적으로 관련된 내용을 다루고 있습니다. 수능 점수와 관련된 정보와 조언을 제공하여 주제와 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 매끄러움이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 특정 학과에 대한 예시로 인해 전체적인 흐름이 약간 단절된 느낌을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답에서 제공된 정보는 대체로 정확하지만, 원본 텍스트에서 제공된 모든 학과의 정보를 포함하지 않아 일부 정확성이 떨어질 수 있습니다. 그러나 제시된 예시는 정확합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 사실성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 다만, 특정 학과에 대한 예시로 인해 전체적인 맥락이 약간 축소된 느낌이 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>0.5992759104231115</v>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 추합 가능한지 판단하기 위해서는 해당 학과의 수능 4개 영역 등급 평균과 표준 편차를 고려해야 합니다.
+예를 들어, "의료경영학과"의 경우:
+- 수능 4개 영역 등급 평균: 5.92
+- 수능 4개 영역 등급 표준 편차: 1.08
+이 때, 5.27은 평균보다 약간 낮습니다. 표준 편차를 고려하면, 이 성적은 평균에서 약 -0.63 표준편차 정도 떨어져 있습니다.
+하지만, 추합 가능성은 단순히 수능 점수로 판단하는 것이 아니라, 지원 동기, 학업 계획 등 다양한 요소를 고려해야 합니다. 따라서 5.27이라는 성적만으로는 확정적으로 추합 가능하다고 말하기 어렵습니다.
+추후에 더 자세한 정보와 함께 상담을 받으시는 것을 추천드립니다. 필요하시면 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 추가적인 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경쟁률, 충원 합격자 수, 지원 인원 등의 정보를 포함하고 있지만, 정시 성적 4.2가 평균보다 낮다고 언급한 부분은 사실과 다릅니다. 원본 텍스트에 따르면 4.2는 평균보다 높은 성적입니다. 따라서 여러 가지 부정확한 정보가 포함되어 있어 점수를 낮게 평가했습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 4.2가 평균보다 높은 성적이라고 명시하고 있지만, 생성된 응답은 이를 반박하는 내용을 담고 있습니다. 이로 인해 일관성이 부족하다고 평가했습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 합격 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 일부 정보는 원본 텍스트의 핵심 포인트와는 다소 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 정시 성적에 대한 평가가 원본 텍스트와 상충하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반되는 정보를 포함하고 있어 정확성이 낮습니다. 특히, 정시 성적에 대한 평가가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮다고 판단했습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 담고 있지만, 원본 텍스트의 의미와는 다소 다르게 해석될 수 있는 부분이 있습니다. 특히, 정시 성적에 대한 해석이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 그러나 일부 내용이 혼란을 줄 수 있는 점이 있어 완벽한 점수를 주지는 않았습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>0.6367017103012437</v>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부의 경쟁률은 4.87이며, 충원 합격자는 63명이었습니다. 지원 인원은 146명으로 많은 지원자가 있습니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87입니다. 이 점수를 기준으로 보면, 정시 성적 4.2는 평균보다 낮습니다.
+하지만 합격 가능성은 여러 요소에 따라 달라질 수 있습니다:
+- 지원자의 개인적인 경력이나 실적
+- 면접 결과 등
+따라서 정확한 합격 가능성을 판단하기 위해서는 동의대학교 소프트웨어공학부에서 요구하는 모든 요소를 고려해야 합니다. 
+더 자세한 정보나 추가 조언이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해보시거나, 동의대학교에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 성적과 관련된 정보를 제공하고 있으며, 3.92의 성적이 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나, 특정 평균 점수나 경쟁률에 대한 정보가 부족하다는 점에서 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 화학환경공학부의 성적 기준에 대한 설명이 잘 연결되어 있습니다. 다만, 평균 점수와 경쟁률에 대한 언급이 부족하여 완전한 일관성은 다소 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 화학환경공학부 일반학생전형에 대한 정보와 관련된 내용을 다루고 있으며, 주어진 질문에 직접적으로 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 정보의 흐름이 조금 더 매끄럽게 연결될 수 있었던 점이 아쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 3.92의 성적이 합격 가능성이 높다는 점을 정확하게 전달하고 있습니다. 그러나 평균 점수와 경쟁률에 대한 구체적인 정보가 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 정보의 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 특정 세부사항이 부족하여 완전한 적합성은 다소 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>0.7006150106151907</v>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부 일반학생전형에 대한 모집 정보를 확인해보겠습니다.
+화학환경공학부는 정시 모집에서 수능 성적을 기준으로 합니다. 주어진 성적 산출 예시와 관련된 정보를 바탕으로, 3.92의 점수로는 화학환경공학부 일반학생전형에 지원할 수 있을지 판단해보겠습니다.
+주요 정보:
+- **모집단위**: 화학환경공학부
+- **전형명**: 정시 (일반학생전형)
+- **수능 전형성적 산출방법**: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+주어진 성적 3.92는 수능 4개 영역의 평균 점수를 나타내고, 이 점수가 화학환경공학부 일반학생전형에 충분한지 판단하기 위해서는 해당 학과의 평균 점수와 경쟁률 등을 고려해야 합니다.
+주어진 정보에서 특정 학과의 평균 점수나 경쟁률을 확인할 수 없습니다. 따라서, 화학환경공학부 일반학생전형에 지원 가능성을 판단하기 위해서는 해당 학과의 2024년도 모집 정보를 확인해야 합니다.
+추가적으로, 정시 전형은 각 대학에서 개별적으로 성적 산출 방법을 설정할 수 있으므로, 동의대학교 화학환경공학부의 정확한 성적 산출 방법과 평균 점수 등을 확인하시기 바랍니다. 필요하다면, https://ipsi. deu. ac. kr/main. do를 참조하여 자세한 정보를 얻으시는 것이 좋습니다.
+따라서, 현재 주어진 정보만으로는 화학환경공학부 일반학생전형에 지원 가능성을 판단하기 어렵습니다. 동의대학교 공식 웹사이트에서 최신 모집 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 잘못된 정보를 제공합니다. 원본 텍스트에서는 4.25라는 성적이 최초합격자의 평균값보다 높다고 명시하고 있으며, 합격 가능성이 높다고 판단하고 있습니다. 그러나 생성된 응답은 합격 가능성이 높지 않을 것이라고 주장하고 있어 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관성이 없습니다. 원본에서는 4.25라는 성적이 합격 가능성이 높다고 언급하고 있지만, 생성된 응답은 그와 반대되는 주장을 하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 질문에 관련된 정보를 제공합니다. 그러나 원본 텍스트의 핵심 내용과는 다소 차이가 있어 완전한 관련성을 가지지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 각 문장이 독립적으로 연결되지만, 주제와의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 4.25라는 성적이 합격 가능성이 높다고 명시된 원본과 달리, 생성된 응답은 그 반대의 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 불일치로 인해 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 완전한 적절성을 가지지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>0.7043241590936911</v>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>4.25라는 성적을 가지고 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능성은 높지 않을 것으로 보입니다.
+동의대학교의 수능 일반학생전형에서 화학환경공학부는 과학과 관련된 교과목이 중요하게 반영됩니다. 따라서 국어, 수학, 영어, 과학 등 주요 교과목의 성적이 높은 학생들이 선호됩니다.
+4.25라는 점수는 평균 이상의 성적을 보여주지만, 동의대학교 화학환경공학부에서는 특히 과학 교과목의 성적이 중요하게 반영되기 때문에, 과학 교과목의 성적이 높은 학생들에 비해 경쟁력이 약간 부족할 수 있습니다.
+하지만 최종 합격 여부는 모집단위와 지원 인원, 그리고 다른 지원자의 성적 등 다양한 요인에 따라 결정되므로, 정확한 판단을 위해서는 동의대학교 화학환경공학부의 모집요강과 전형방법을 자세히 확인하는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi.deu.ac.kr/main.do 웹사이트를 참조하시거나, 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 영화학과의 평균 등급과 관련된 정보를 제공하지만, 평균 등급이 4.72라는 정보는 원본 텍스트에 명시되어 있지 않습니다. 또한, 서류 평가와 면접의 중요성을 강조하는 부분은 사실이지만, 원본 텍스트에서 제공된 정보와는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 등급에 대한 정보가 추가되어 있어 일관성이 떨어집니다. 원본 텍스트는 단순히 성적이 4.2일 경우 합격 가능성이 있다고만 언급하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 영화학과 지원에 대한 정보와 관련된 내용을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 평균 등급에 대한 정보가 추가되면서 약간의 혼란이 생길 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 등급에 대한 정보가 추가되어 있어 정확성이 떨어집니다. 원본 텍스트의 정보와 다소 상충하는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 관련성, 유창성, 일관성 등에서 좋은 점수를 받지만, 사실성과 정확성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 정보를 제공합니다. 그러나 평균 등급에 대한 정보는 다소 부적절할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 정보가 추가되면서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>0.730086857481128</v>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위별 평균 점수와 경쟁률을 참고하면, 현재의 성적(4.2)은 영화학과 지원에 대해 어느 정도의 기대를 가능하게 만드는 수준입니다.
+하지만, 정시전형에서 합격 여부는 단순히 국어+수학+탐구 등급뿐만 아니라, 서류평가와 면접 등의 요소도 포함되어 결정됩니다. 따라서 다음과 같은 점들을 고려해야 합니다:
+1. **국어 + 수학 + 탐구 등급 평균**: 영화학과의 경우 이 영역의 평균 등급이 4.72입니다. 현재 성적(4.2)은 약간 낮아 보이지만, 경쟁률이 높지 않으므로 충분히 합격 가능성은 있습니다.
+2. **서류평가와 면접**: 서류평가에서는 학업태도, 활동 경험 등이 중요합니다. 영화학과에 지원한 경우, 창의성과 예술적 감각을 보여줄 수 있는 서류가 필요합니다. 또한 면접에서도 이러한 요소를 강조해야 합니다.
+3. **경쟁률**: 현재 지원 인원이 많지 않아서 경쟁률은 낮습니다. 이는 합격 가능성에 긍정적인 영향을 미칩니다.
+따라서, 현재의 성적(4.2)은 영화학과에서 충분히 합격 가능성을 가지고 있습니다. 하지만 서류평가와 면접에서도 좋은 결과를 얻기 위해 노력해야 합니다. 자세한 정보는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나, 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 문장도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬운 표현으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>0.9591690361832534</v>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 통해 면접이 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
